--- a/raw_data/20200818_saline/20200818_Sensor3_Test_10.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_10.xlsx
@@ -1,930 +1,1346 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E43031-3EF3-47ED-A8A7-C361BC822016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>8652.638829</v>
+        <v>8652.6388289999995</v>
       </c>
       <c r="B2" s="1">
         <v>2.403511</v>
       </c>
       <c r="C2" s="1">
-        <v>1142.490000</v>
+        <v>1142.49</v>
       </c>
       <c r="D2" s="1">
-        <v>-252.816000</v>
+        <v>-252.816</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>8663.086063</v>
+        <v>8663.0860630000006</v>
       </c>
       <c r="G2" s="1">
-        <v>2.406413</v>
+        <v>2.4064130000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1163.910000</v>
+        <v>1163.9100000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-211.960000</v>
+        <v>-211.96</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>8674.095112</v>
+        <v>8674.0951120000009</v>
       </c>
       <c r="L2" s="1">
-        <v>2.409471</v>
+        <v>2.4094709999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1191.510000</v>
+        <v>1191.51</v>
       </c>
       <c r="N2" s="1">
-        <v>-148.240000</v>
+        <v>-148.24</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>8684.492445</v>
+        <v>8684.4924449999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>2.412359</v>
+        <v>2.4123589999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1199.390000</v>
+        <v>1199.3900000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-126.760000</v>
+        <v>-126.76</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>8695.027959</v>
+        <v>8695.0279589999991</v>
       </c>
       <c r="V2" s="1">
         <v>2.415286</v>
       </c>
       <c r="W2" s="1">
-        <v>1206.810000</v>
+        <v>1206.81</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.223000</v>
+        <v>-106.223</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>8705.452840</v>
+        <v>8705.4528399999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>2.418181</v>
+        <v>2.4181810000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1214.470000</v>
+        <v>1214.47</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.511700</v>
+        <v>-89.511700000000005</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>8716.030560</v>
+        <v>8716.0305599999992</v>
       </c>
       <c r="AF2" s="1">
-        <v>2.421120</v>
+        <v>2.4211200000000002</v>
       </c>
       <c r="AG2" s="1">
-        <v>1219.080000</v>
+        <v>1219.08</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.159200</v>
+        <v>-85.159199999999998</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>8726.737693</v>
+        <v>8726.7376929999991</v>
       </c>
       <c r="AK2" s="1">
-        <v>2.424094</v>
+        <v>2.4240940000000002</v>
       </c>
       <c r="AL2" s="1">
-        <v>1226.130000</v>
+        <v>1226.1300000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.390500</v>
+        <v>-88.390500000000003</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>8737.038574</v>
+        <v>8737.0385740000002</v>
       </c>
       <c r="AP2" s="1">
         <v>2.426955</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1234.030000</v>
+        <v>1234.03</v>
       </c>
       <c r="AR2" s="1">
-        <v>-100.144000</v>
+        <v>-100.14400000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>8747.705541</v>
+        <v>8747.7055409999994</v>
       </c>
       <c r="AU2" s="1">
-        <v>2.429918</v>
+        <v>2.4299179999999998</v>
       </c>
       <c r="AV2" s="1">
-        <v>1243.860000</v>
+        <v>1243.8599999999999</v>
       </c>
       <c r="AW2" s="1">
-        <v>-119.211000</v>
+        <v>-119.211</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>8758.071426</v>
+        <v>8758.0714260000004</v>
       </c>
       <c r="AZ2" s="1">
         <v>2.432798</v>
       </c>
       <c r="BA2" s="1">
-        <v>1252.190000</v>
+        <v>1252.19</v>
       </c>
       <c r="BB2" s="1">
-        <v>-136.420000</v>
+        <v>-136.41999999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>8768.700197</v>
+        <v>8768.7001970000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>2.435750</v>
+        <v>2.4357500000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1291.440000</v>
+        <v>1291.44</v>
       </c>
       <c r="BG2" s="1">
-        <v>-217.240000</v>
+        <v>-217.24</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>8779.353271</v>
+        <v>8779.3532709999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>2.438709</v>
+        <v>2.4387089999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1359.120000</v>
+        <v>1359.12</v>
       </c>
       <c r="BL2" s="1">
-        <v>-352.461000</v>
+        <v>-352.46100000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>8790.748358</v>
+        <v>8790.7483580000007</v>
       </c>
       <c r="BO2" s="1">
         <v>2.441875</v>
       </c>
       <c r="BP2" s="1">
-        <v>1470.210000</v>
+        <v>1470.21</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-574.198000</v>
+        <v>-574.19799999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>8801.091433</v>
+        <v>8801.0914329999996</v>
       </c>
       <c r="BT2" s="1">
-        <v>2.444748</v>
+        <v>2.4447480000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1599.030000</v>
+        <v>1599.03</v>
       </c>
       <c r="BV2" s="1">
-        <v>-825.950000</v>
+        <v>-825.95</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>8811.524780</v>
+        <v>8811.5247799999997</v>
       </c>
       <c r="BY2" s="1">
-        <v>2.447646</v>
+        <v>2.4476460000000002</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1748.160000</v>
+        <v>1748.16</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1101.480000</v>
+        <v>-1101.48</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>8822.602429</v>
+        <v>8822.6024290000005</v>
       </c>
       <c r="CD2" s="1">
         <v>2.450723</v>
       </c>
       <c r="CE2" s="1">
-        <v>2161.700000</v>
+        <v>2161.6999999999998</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1771.420000</v>
+        <v>-1771.42</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>8653.403165</v>
+        <v>8653.4031649999997</v>
       </c>
       <c r="B3" s="1">
-        <v>2.403723</v>
+        <v>2.4037229999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>1142.440000</v>
+        <v>1142.44</v>
       </c>
       <c r="D3" s="1">
-        <v>-252.696000</v>
+        <v>-252.696</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>8663.815182</v>
+        <v>8663.8151820000003</v>
       </c>
       <c r="G3" s="1">
-        <v>2.406615</v>
+        <v>2.4066149999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1163.970000</v>
+        <v>1163.97</v>
       </c>
       <c r="I3" s="1">
-        <v>-212.516000</v>
+        <v>-212.51599999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>8674.443456</v>
+        <v>8674.4434560000009</v>
       </c>
       <c r="L3" s="1">
-        <v>2.409568</v>
+        <v>2.4095680000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>1191.750000</v>
+        <v>1191.75</v>
       </c>
       <c r="N3" s="1">
-        <v>-148.076000</v>
+        <v>-148.07599999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>8684.844067</v>
       </c>
       <c r="Q3" s="1">
-        <v>2.412457</v>
+        <v>2.4124569999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1199.420000</v>
+        <v>1199.42</v>
       </c>
       <c r="S3" s="1">
-        <v>-126.676000</v>
+        <v>-126.676</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>8695.389012</v>
+        <v>8695.3890119999996</v>
       </c>
       <c r="V3" s="1">
-        <v>2.415386</v>
+        <v>2.4153859999999998</v>
       </c>
       <c r="W3" s="1">
-        <v>1206.870000</v>
+        <v>1206.8699999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.263000</v>
+        <v>-106.26300000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>8706.139798</v>
+        <v>8706.1397980000002</v>
       </c>
       <c r="AA3" s="1">
-        <v>2.418372</v>
+        <v>2.4183720000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>1214.340000</v>
+        <v>1214.3399999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.520800</v>
+        <v>-89.520799999999994</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>8716.676313</v>
+        <v>8716.6763129999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>2.421299</v>
+        <v>2.4212989999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>1219.110000</v>
+        <v>1219.1099999999999</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.170500</v>
+        <v>-85.170500000000004</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>8726.845292</v>
       </c>
       <c r="AK3" s="1">
-        <v>2.424124</v>
+        <v>2.4241239999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1226.170000</v>
+        <v>1226.17</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.442000</v>
+        <v>-88.441999999999993</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>8737.411068</v>
+        <v>8737.4110679999994</v>
       </c>
       <c r="AP3" s="1">
-        <v>2.427059</v>
+        <v>2.4270589999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1234.030000</v>
+        <v>1234.03</v>
       </c>
       <c r="AR3" s="1">
-        <v>-100.156000</v>
+        <v>-100.15600000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>8748.075088</v>
+        <v>8748.0750879999996</v>
       </c>
       <c r="AU3" s="1">
         <v>2.430021</v>
       </c>
       <c r="AV3" s="1">
-        <v>1243.900000</v>
+        <v>1243.9000000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-119.176000</v>
+        <v>-119.176</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>8758.455825</v>
+        <v>8758.4558249999991</v>
       </c>
       <c r="AZ3" s="1">
-        <v>2.432904</v>
+        <v>2.4329040000000002</v>
       </c>
       <c r="BA3" s="1">
-        <v>1252.240000</v>
+        <v>1252.24</v>
       </c>
       <c r="BB3" s="1">
-        <v>-136.430000</v>
+        <v>-136.43</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>8769.101988</v>
+        <v>8769.1019880000003</v>
       </c>
       <c r="BE3" s="1">
-        <v>2.435862</v>
+        <v>2.4358620000000002</v>
       </c>
       <c r="BF3" s="1">
-        <v>1291.440000</v>
+        <v>1291.44</v>
       </c>
       <c r="BG3" s="1">
-        <v>-217.298000</v>
+        <v>-217.298</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>8779.772885</v>
+        <v>8779.7728850000003</v>
       </c>
       <c r="BJ3" s="1">
-        <v>2.438826</v>
+        <v>2.4388260000000002</v>
       </c>
       <c r="BK3" s="1">
-        <v>1359.150000</v>
+        <v>1359.15</v>
       </c>
       <c r="BL3" s="1">
-        <v>-352.496000</v>
+        <v>-352.49599999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>8790.863464</v>
@@ -933,876 +1349,876 @@
         <v>2.441907</v>
       </c>
       <c r="BP3" s="1">
-        <v>1470.210000</v>
+        <v>1470.21</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-574.198000</v>
+        <v>-574.19799999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>8801.240730</v>
+        <v>8801.2407299999995</v>
       </c>
       <c r="BT3" s="1">
-        <v>2.444789</v>
+        <v>2.4447890000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1599.170000</v>
+        <v>1599.17</v>
       </c>
       <c r="BV3" s="1">
-        <v>-825.804000</v>
+        <v>-825.80399999999997</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>8811.998955</v>
+        <v>8811.9989549999991</v>
       </c>
       <c r="BY3" s="1">
-        <v>2.447777</v>
+        <v>2.4477769999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1748.240000</v>
+        <v>1748.24</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1101.610000</v>
+        <v>-1101.6099999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>8823.185724</v>
+        <v>8823.1857240000008</v>
       </c>
       <c r="CD3" s="1">
         <v>2.450885</v>
       </c>
       <c r="CE3" s="1">
-        <v>2161.330000</v>
+        <v>2161.33</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1773.750000</v>
+        <v>-1773.75</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>8653.745901</v>
+        <v>8653.7459010000002</v>
       </c>
       <c r="B4" s="1">
-        <v>2.403818</v>
+        <v>2.4038179999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>1142.200000</v>
+        <v>1142.2</v>
       </c>
       <c r="D4" s="1">
-        <v>-253.042000</v>
+        <v>-253.042</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>8664.158947</v>
+        <v>8664.1589469999999</v>
       </c>
       <c r="G4" s="1">
         <v>2.406711</v>
       </c>
       <c r="H4" s="1">
-        <v>1163.570000</v>
+        <v>1163.57</v>
       </c>
       <c r="I4" s="1">
-        <v>-212.547000</v>
+        <v>-212.547</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>8674.787184</v>
+        <v>8674.7871840000007</v>
       </c>
       <c r="L4" s="1">
-        <v>2.409663</v>
+        <v>2.4096630000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1191.740000</v>
+        <v>1191.74</v>
       </c>
       <c r="N4" s="1">
-        <v>-148.496000</v>
+        <v>-148.49600000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>8685.491345</v>
+        <v>8685.4913450000004</v>
       </c>
       <c r="Q4" s="1">
         <v>2.412636</v>
       </c>
       <c r="R4" s="1">
-        <v>1199.430000</v>
+        <v>1199.43</v>
       </c>
       <c r="S4" s="1">
-        <v>-126.648000</v>
+        <v>-126.648</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>8696.040755</v>
       </c>
       <c r="V4" s="1">
-        <v>2.415567</v>
+        <v>2.4155669999999998</v>
       </c>
       <c r="W4" s="1">
-        <v>1206.760000</v>
+        <v>1206.76</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.259000</v>
+        <v>-106.259</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>8706.535143</v>
+        <v>8706.5351429999992</v>
       </c>
       <c r="AA4" s="1">
         <v>2.418482</v>
       </c>
       <c r="AB4" s="1">
-        <v>1214.310000</v>
+        <v>1214.31</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.497200</v>
+        <v>-89.497200000000007</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>8717.063228</v>
+        <v>8717.0632280000009</v>
       </c>
       <c r="AF4" s="1">
-        <v>2.421406</v>
+        <v>2.4214060000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>1219.140000</v>
+        <v>1219.1400000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.107800</v>
+        <v>-85.107799999999997</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>8727.176657</v>
       </c>
       <c r="AK4" s="1">
-        <v>2.424216</v>
+        <v>2.4242159999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1226.120000</v>
+        <v>1226.1199999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.408800</v>
+        <v>-88.408799999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>8737.771693</v>
+        <v>8737.7716930000006</v>
       </c>
       <c r="AP4" s="1">
-        <v>2.427159</v>
+        <v>2.4271590000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1234.020000</v>
+        <v>1234.02</v>
       </c>
       <c r="AR4" s="1">
-        <v>-100.164000</v>
+        <v>-100.164</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>8748.438457</v>
+        <v>8748.4384570000002</v>
       </c>
       <c r="AU4" s="1">
-        <v>2.430122</v>
+        <v>2.4301219999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1243.890000</v>
+        <v>1243.8900000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-119.211000</v>
+        <v>-119.211</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>8758.858113</v>
+        <v>8758.8581130000002</v>
       </c>
       <c r="AZ4" s="1">
-        <v>2.433016</v>
+        <v>2.4330159999999998</v>
       </c>
       <c r="BA4" s="1">
-        <v>1252.200000</v>
+        <v>1252.2</v>
       </c>
       <c r="BB4" s="1">
-        <v>-136.445000</v>
+        <v>-136.44499999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>8769.522563</v>
+        <v>8769.5225630000004</v>
       </c>
       <c r="BE4" s="1">
         <v>2.435978</v>
       </c>
       <c r="BF4" s="1">
-        <v>1291.440000</v>
+        <v>1291.44</v>
       </c>
       <c r="BG4" s="1">
-        <v>-217.228000</v>
+        <v>-217.22800000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>8780.115157</v>
+        <v>8780.1151570000002</v>
       </c>
       <c r="BJ4" s="1">
-        <v>2.438921</v>
+        <v>2.4389210000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1359.130000</v>
+        <v>1359.13</v>
       </c>
       <c r="BL4" s="1">
-        <v>-352.516000</v>
+        <v>-352.51600000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>8791.293494</v>
+        <v>8791.2934939999996</v>
       </c>
       <c r="BO4" s="1">
-        <v>2.442026</v>
+        <v>2.4420259999999998</v>
       </c>
       <c r="BP4" s="1">
-        <v>1470.190000</v>
+        <v>1470.19</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-574.240000</v>
+        <v>-574.24</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>8801.678696</v>
+        <v>8801.6786960000009</v>
       </c>
       <c r="BT4" s="1">
-        <v>2.444911</v>
+        <v>2.4449109999999998</v>
       </c>
       <c r="BU4" s="1">
-        <v>1599.150000</v>
+        <v>1599.15</v>
       </c>
       <c r="BV4" s="1">
-        <v>-825.864000</v>
+        <v>-825.86400000000003</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>8812.457258</v>
+        <v>8812.4572580000004</v>
       </c>
       <c r="BY4" s="1">
         <v>2.447905</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1748.190000</v>
+        <v>1748.19</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1101.360000</v>
+        <v>-1101.3599999999999</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>8823.704043</v>
+        <v>8823.7040429999997</v>
       </c>
       <c r="CD4" s="1">
-        <v>2.451029</v>
+        <v>2.4510290000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>2161.020000</v>
+        <v>2161.02</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1772.520000</v>
+        <v>-1772.52</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>8654.095083</v>
+        <v>8654.0950830000002</v>
       </c>
       <c r="B5" s="1">
         <v>2.403915</v>
       </c>
       <c r="C5" s="1">
-        <v>1142.220000</v>
+        <v>1142.22</v>
       </c>
       <c r="D5" s="1">
-        <v>-252.590000</v>
+        <v>-252.59</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>8664.502637</v>
+        <v>8664.5026369999996</v>
       </c>
       <c r="G5" s="1">
         <v>2.406806</v>
       </c>
       <c r="H5" s="1">
-        <v>1163.580000</v>
+        <v>1163.58</v>
       </c>
       <c r="I5" s="1">
-        <v>-212.690000</v>
+        <v>-212.69</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>8675.440912</v>
       </c>
       <c r="L5" s="1">
-        <v>2.409845</v>
+        <v>2.4098449999999998</v>
       </c>
       <c r="M5" s="1">
-        <v>1191.450000</v>
+        <v>1191.45</v>
       </c>
       <c r="N5" s="1">
-        <v>-147.896000</v>
+        <v>-147.89599999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>8685.877729</v>
+        <v>8685.8777289999998</v>
       </c>
       <c r="Q5" s="1">
         <v>2.412744</v>
       </c>
       <c r="R5" s="1">
-        <v>1199.500000</v>
+        <v>1199.5</v>
       </c>
       <c r="S5" s="1">
-        <v>-126.710000</v>
+        <v>-126.71</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>8696.415731</v>
+        <v>8696.4157309999991</v>
       </c>
       <c r="V5" s="1">
-        <v>2.415671</v>
+        <v>2.4156710000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1206.780000</v>
+        <v>1206.78</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.270000</v>
+        <v>-106.27</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>8706.882309</v>
+        <v>8706.8823090000005</v>
       </c>
       <c r="AA5" s="1">
-        <v>2.418578</v>
+        <v>2.4185780000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1214.320000</v>
+        <v>1214.32</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.607100</v>
+        <v>-89.607100000000003</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>8717.405464</v>
+        <v>8717.4054639999995</v>
       </c>
       <c r="AF5" s="1">
-        <v>2.421502</v>
+        <v>2.4215019999999998</v>
       </c>
       <c r="AG5" s="1">
-        <v>1219.060000</v>
+        <v>1219.06</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.105100</v>
+        <v>-85.105099999999993</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>8727.524810</v>
+        <v>8727.5248100000008</v>
       </c>
       <c r="AK5" s="1">
         <v>2.424312</v>
       </c>
       <c r="AL5" s="1">
-        <v>1226.140000</v>
+        <v>1226.1400000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.415300</v>
+        <v>-88.415300000000002</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>8738.185360</v>
+        <v>8738.1853599999995</v>
       </c>
       <c r="AP5" s="1">
-        <v>2.427274</v>
+        <v>2.4272740000000002</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1234.040000</v>
+        <v>1234.04</v>
       </c>
       <c r="AR5" s="1">
-        <v>-100.145000</v>
+        <v>-100.145</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>8748.849309</v>
+        <v>8748.8493089999993</v>
       </c>
       <c r="AU5" s="1">
-        <v>2.430236</v>
+        <v>2.4302359999999998</v>
       </c>
       <c r="AV5" s="1">
-        <v>1243.880000</v>
+        <v>1243.8800000000001</v>
       </c>
       <c r="AW5" s="1">
-        <v>-119.217000</v>
+        <v>-119.217</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>8759.171057</v>
+        <v>8759.1710569999996</v>
       </c>
       <c r="AZ5" s="1">
         <v>2.433103</v>
       </c>
       <c r="BA5" s="1">
-        <v>1252.190000</v>
+        <v>1252.19</v>
       </c>
       <c r="BB5" s="1">
-        <v>-136.459000</v>
+        <v>-136.459</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>8769.825155</v>
+        <v>8769.8251550000004</v>
       </c>
       <c r="BE5" s="1">
-        <v>2.436063</v>
+        <v>2.4360629999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1291.420000</v>
+        <v>1291.42</v>
       </c>
       <c r="BG5" s="1">
-        <v>-217.255000</v>
+        <v>-217.255</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>8780.491620</v>
+        <v>8780.4916200000007</v>
       </c>
       <c r="BJ5" s="1">
         <v>2.439025</v>
       </c>
       <c r="BK5" s="1">
-        <v>1359.150000</v>
+        <v>1359.15</v>
       </c>
       <c r="BL5" s="1">
-        <v>-352.491000</v>
+        <v>-352.49099999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>8791.692741</v>
+        <v>8791.6927410000008</v>
       </c>
       <c r="BO5" s="1">
-        <v>2.442137</v>
+        <v>2.4421369999999998</v>
       </c>
       <c r="BP5" s="1">
-        <v>1470.170000</v>
+        <v>1470.17</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-574.218000</v>
+        <v>-574.21799999999996</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>8802.106247</v>
+        <v>8802.1062469999997</v>
       </c>
       <c r="BT5" s="1">
-        <v>2.445030</v>
+        <v>2.44503</v>
       </c>
       <c r="BU5" s="1">
-        <v>1599.240000</v>
+        <v>1599.24</v>
       </c>
       <c r="BV5" s="1">
-        <v>-825.961000</v>
+        <v>-825.96100000000001</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>8812.914569</v>
+        <v>8812.9145690000005</v>
       </c>
       <c r="BY5" s="1">
         <v>2.448032</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1748.140000</v>
+        <v>1748.14</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1101.470000</v>
+        <v>-1101.47</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>8824.254633</v>
+        <v>8824.2546330000005</v>
       </c>
       <c r="CD5" s="1">
-        <v>2.451182</v>
+        <v>2.4511820000000002</v>
       </c>
       <c r="CE5" s="1">
-        <v>2161.790000</v>
+        <v>2161.79</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1771.620000</v>
+        <v>-1771.62</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>8654.743851</v>
+        <v>8654.7438509999993</v>
       </c>
       <c r="B6" s="1">
         <v>2.404096</v>
       </c>
       <c r="C6" s="1">
-        <v>1142.280000</v>
+        <v>1142.28</v>
       </c>
       <c r="D6" s="1">
-        <v>-253.007000</v>
+        <v>-253.00700000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>8665.156364</v>
+        <v>8665.1563640000004</v>
       </c>
       <c r="G6" s="1">
-        <v>2.406988</v>
+        <v>2.4069880000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1164.130000</v>
+        <v>1164.1300000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-212.271000</v>
+        <v>-212.27099999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>8675.824814</v>
+        <v>8675.8248139999996</v>
       </c>
       <c r="L6" s="1">
         <v>2.409951</v>
       </c>
       <c r="M6" s="1">
-        <v>1191.960000</v>
+        <v>1191.96</v>
       </c>
       <c r="N6" s="1">
-        <v>-148.297000</v>
+        <v>-148.297</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>8686.236337</v>
+        <v>8686.2363370000003</v>
       </c>
       <c r="Q6" s="1">
-        <v>2.412843</v>
+        <v>2.4128430000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1199.490000</v>
+        <v>1199.49</v>
       </c>
       <c r="S6" s="1">
-        <v>-126.695000</v>
+        <v>-126.69499999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>8696.761442</v>
+        <v>8696.7614420000009</v>
       </c>
       <c r="V6" s="1">
-        <v>2.415767</v>
+        <v>2.4157670000000002</v>
       </c>
       <c r="W6" s="1">
-        <v>1206.830000</v>
+        <v>1206.83</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.244000</v>
+        <v>-106.244</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>8707.232021</v>
+        <v>8707.2320209999998</v>
       </c>
       <c r="AA6" s="1">
         <v>2.418676</v>
       </c>
       <c r="AB6" s="1">
-        <v>1214.450000</v>
+        <v>1214.45</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.464800</v>
+        <v>-89.464799999999997</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>8717.757967</v>
+        <v>8717.7579669999996</v>
       </c>
       <c r="AF6" s="1">
-        <v>2.421599</v>
+        <v>2.4215990000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1219.110000</v>
+        <v>1219.1099999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.072600</v>
+        <v>-85.072599999999994</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>8727.939480</v>
+        <v>8727.9394799999991</v>
       </c>
       <c r="AK6" s="1">
-        <v>2.424428</v>
+        <v>2.4244279999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>1226.150000</v>
+        <v>1226.1500000000001</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.420900</v>
+        <v>-88.420900000000003</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>8738.491355</v>
+        <v>8738.4913550000001</v>
       </c>
       <c r="AP6" s="1">
         <v>2.427359</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1234.020000</v>
+        <v>1234.02</v>
       </c>
       <c r="AR6" s="1">
-        <v>-100.167000</v>
+        <v>-100.167</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>8749.165790</v>
+        <v>8749.1657899999991</v>
       </c>
       <c r="AU6" s="1">
-        <v>2.430324</v>
+        <v>2.4303240000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>1243.870000</v>
+        <v>1243.8699999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>-119.189000</v>
+        <v>-119.18899999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>8759.531649</v>
+        <v>8759.5316490000005</v>
       </c>
       <c r="AZ6" s="1">
-        <v>2.433203</v>
+        <v>2.4332029999999998</v>
       </c>
       <c r="BA6" s="1">
-        <v>1252.180000</v>
+        <v>1252.18</v>
       </c>
       <c r="BB6" s="1">
-        <v>-136.437000</v>
+        <v>-136.43700000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>8770.185722</v>
+        <v>8770.1857220000002</v>
       </c>
       <c r="BE6" s="1">
-        <v>2.436163</v>
+        <v>2.4361630000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1291.410000</v>
+        <v>1291.4100000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-217.278000</v>
+        <v>-217.27799999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>8780.878468</v>
+        <v>8780.8784680000008</v>
       </c>
       <c r="BJ6" s="1">
         <v>2.439133</v>
       </c>
       <c r="BK6" s="1">
-        <v>1359.150000</v>
+        <v>1359.15</v>
       </c>
       <c r="BL6" s="1">
-        <v>-352.494000</v>
+        <v>-352.49400000000003</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>8792.111402</v>
+        <v>8792.1114020000005</v>
       </c>
       <c r="BO6" s="1">
         <v>2.442253</v>
       </c>
       <c r="BP6" s="1">
-        <v>1470.120000</v>
+        <v>1470.12</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-574.279000</v>
+        <v>-574.279</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>8802.517018</v>
+        <v>8802.5170180000005</v>
       </c>
       <c r="BT6" s="1">
         <v>2.445144</v>
       </c>
       <c r="BU6" s="1">
-        <v>1599.310000</v>
+        <v>1599.31</v>
       </c>
       <c r="BV6" s="1">
-        <v>-826.015000</v>
+        <v>-826.01499999999999</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>8813.361960</v>
+        <v>8813.3619600000002</v>
       </c>
       <c r="BY6" s="1">
         <v>2.448156</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1748.300000</v>
+        <v>1748.3</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1101.490000</v>
+        <v>-1101.49</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>8824.785350</v>
+        <v>8824.7853500000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>2.451329</v>
+        <v>2.4513289999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>2161.390000</v>
+        <v>2161.39</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1773.340000</v>
+        <v>-1773.34</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>8655.115856</v>
+        <v>8655.1158560000003</v>
       </c>
       <c r="B7" s="1">
-        <v>2.404199</v>
+        <v>2.4041990000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>1142.340000</v>
+        <v>1142.3399999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-252.927000</v>
+        <v>-252.92699999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>8665.539307</v>
+        <v>8665.5393069999991</v>
       </c>
       <c r="G7" s="1">
-        <v>2.407094</v>
+        <v>2.4070939999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>1164.050000</v>
+        <v>1164.05</v>
       </c>
       <c r="I7" s="1">
-        <v>-213.454000</v>
+        <v>-213.45400000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>8676.169038</v>
       </c>
       <c r="L7" s="1">
-        <v>2.410047</v>
+        <v>2.4100470000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1191.680000</v>
+        <v>1191.68</v>
       </c>
       <c r="N7" s="1">
-        <v>-148.020000</v>
+        <v>-148.02000000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>8686.586018</v>
@@ -1811,919 +2227,919 @@
         <v>2.412941</v>
       </c>
       <c r="R7" s="1">
-        <v>1199.420000</v>
+        <v>1199.42</v>
       </c>
       <c r="S7" s="1">
-        <v>-126.692000</v>
+        <v>-126.69199999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>8697.108675</v>
+        <v>8697.1086749999995</v>
       </c>
       <c r="V7" s="1">
         <v>2.415864</v>
       </c>
       <c r="W7" s="1">
-        <v>1206.840000</v>
+        <v>1206.8399999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.255000</v>
+        <v>-106.255</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>8707.626805</v>
+        <v>8707.6268049999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>2.418785</v>
+        <v>2.4187850000000002</v>
       </c>
       <c r="AB7" s="1">
-        <v>1214.400000</v>
+        <v>1214.4000000000001</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.541500</v>
+        <v>-89.541499999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>8718.178236</v>
+        <v>8718.1782359999997</v>
       </c>
       <c r="AF7" s="1">
         <v>2.421716</v>
       </c>
       <c r="AG7" s="1">
-        <v>1219.070000</v>
+        <v>1219.07</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.139100</v>
+        <v>-85.139099999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>8728.223673</v>
+        <v>8728.2236730000004</v>
       </c>
       <c r="AK7" s="1">
-        <v>2.424507</v>
+        <v>2.4245070000000002</v>
       </c>
       <c r="AL7" s="1">
-        <v>1226.150000</v>
+        <v>1226.1500000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.417600</v>
+        <v>-88.417599999999993</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>8738.850987</v>
+        <v>8738.8509869999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>2.427459</v>
+        <v>2.4274589999999998</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1234.030000</v>
+        <v>1234.03</v>
       </c>
       <c r="AR7" s="1">
-        <v>-100.162000</v>
+        <v>-100.16200000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>8749.532797</v>
+        <v>8749.5327969999998</v>
       </c>
       <c r="AU7" s="1">
-        <v>2.430426</v>
+        <v>2.4304260000000002</v>
       </c>
       <c r="AV7" s="1">
-        <v>1243.870000</v>
+        <v>1243.8699999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-119.195000</v>
+        <v>-119.19499999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>8759.888280</v>
+        <v>8759.8882799999992</v>
       </c>
       <c r="AZ7" s="1">
-        <v>2.433302</v>
+        <v>2.4333019999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1252.190000</v>
+        <v>1252.19</v>
       </c>
       <c r="BB7" s="1">
-        <v>-136.454000</v>
+        <v>-136.45400000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>8770.551266</v>
+        <v>8770.5512660000004</v>
       </c>
       <c r="BE7" s="1">
         <v>2.436264</v>
       </c>
       <c r="BF7" s="1">
-        <v>1291.480000</v>
+        <v>1291.48</v>
       </c>
       <c r="BG7" s="1">
-        <v>-217.265000</v>
+        <v>-217.26499999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>8781.642307</v>
+        <v>8781.6423070000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>2.439345</v>
+        <v>2.4393449999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1359.140000</v>
+        <v>1359.14</v>
       </c>
       <c r="BL7" s="1">
-        <v>-352.526000</v>
+        <v>-352.52600000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>8792.508692</v>
+        <v>8792.5086919999994</v>
       </c>
       <c r="BO7" s="1">
         <v>2.442364</v>
       </c>
       <c r="BP7" s="1">
-        <v>1470.200000</v>
+        <v>1470.2</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-574.288000</v>
+        <v>-574.28800000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>8802.947006</v>
+        <v>8802.9470060000003</v>
       </c>
       <c r="BT7" s="1">
-        <v>2.445263</v>
+        <v>2.4452630000000002</v>
       </c>
       <c r="BU7" s="1">
-        <v>1599.390000</v>
+        <v>1599.39</v>
       </c>
       <c r="BV7" s="1">
-        <v>-826.049000</v>
+        <v>-826.04899999999998</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>8813.821288</v>
+        <v>8813.8212879999992</v>
       </c>
       <c r="BY7" s="1">
-        <v>2.448284</v>
+        <v>2.4482840000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1748.210000</v>
+        <v>1748.21</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1101.420000</v>
+        <v>-1101.42</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>8825.610698</v>
+        <v>8825.6106980000004</v>
       </c>
       <c r="CD7" s="1">
         <v>2.451559</v>
       </c>
       <c r="CE7" s="1">
-        <v>2163.880000</v>
+        <v>2163.88</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1773.880000</v>
+        <v>-1773.88</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>8655.460569</v>
+        <v>8655.4605690000008</v>
       </c>
       <c r="B8" s="1">
-        <v>2.404295</v>
+        <v>2.4042949999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>1142.430000</v>
+        <v>1142.43</v>
       </c>
       <c r="D8" s="1">
-        <v>-253.191000</v>
+        <v>-253.191</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>8665.882011</v>
+        <v>8665.8820109999997</v>
       </c>
       <c r="G8" s="1">
-        <v>2.407189</v>
+        <v>2.4071889999999998</v>
       </c>
       <c r="H8" s="1">
-        <v>1163.670000</v>
+        <v>1163.67</v>
       </c>
       <c r="I8" s="1">
-        <v>-212.519000</v>
+        <v>-212.51900000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>8676.515774</v>
+        <v>8676.5157739999995</v>
       </c>
       <c r="L8" s="1">
-        <v>2.410143</v>
+        <v>2.4101430000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1191.600000</v>
+        <v>1191.5999999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-148.262000</v>
+        <v>-148.262</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>8687.009105</v>
+        <v>8687.0091049999992</v>
       </c>
       <c r="Q8" s="1">
-        <v>2.413058</v>
+        <v>2.4130579999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1199.420000</v>
+        <v>1199.42</v>
       </c>
       <c r="S8" s="1">
-        <v>-126.668000</v>
+        <v>-126.66800000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>8697.517377</v>
+        <v>8697.5173770000001</v>
       </c>
       <c r="V8" s="1">
-        <v>2.415977</v>
+        <v>2.4159769999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>1206.870000</v>
+        <v>1206.8699999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-106.265000</v>
+        <v>-106.265</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>8707.929398</v>
+        <v>8707.9293980000002</v>
       </c>
       <c r="AA8" s="1">
-        <v>2.418869</v>
+        <v>2.4188689999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1214.320000</v>
+        <v>1214.32</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.707500</v>
+        <v>-89.707499999999996</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>8718.460919</v>
+        <v>8718.4609189999992</v>
       </c>
       <c r="AF8" s="1">
-        <v>2.421795</v>
+        <v>2.4217949999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1219.080000</v>
+        <v>1219.08</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.106300</v>
+        <v>-85.106300000000005</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>8728.570376</v>
+        <v>8728.5703759999997</v>
       </c>
       <c r="AK8" s="1">
-        <v>2.424603</v>
+        <v>2.4246029999999998</v>
       </c>
       <c r="AL8" s="1">
-        <v>1226.160000</v>
+        <v>1226.1600000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.404300</v>
+        <v>-88.404300000000006</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>8739.209563</v>
+        <v>8739.2095630000003</v>
       </c>
       <c r="AP8" s="1">
-        <v>2.427558</v>
+        <v>2.4275579999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1234.040000</v>
+        <v>1234.04</v>
       </c>
       <c r="AR8" s="1">
-        <v>-100.160000</v>
+        <v>-100.16</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>8749.894382</v>
+        <v>8749.8943820000004</v>
       </c>
       <c r="AU8" s="1">
         <v>2.430526</v>
       </c>
       <c r="AV8" s="1">
-        <v>1243.900000</v>
+        <v>1243.9000000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-119.201000</v>
+        <v>-119.20099999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>8760.615406</v>
+        <v>8760.6154060000008</v>
       </c>
       <c r="AZ8" s="1">
-        <v>2.433504</v>
+        <v>2.4335040000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1252.200000</v>
+        <v>1252.2</v>
       </c>
       <c r="BB8" s="1">
-        <v>-136.428000</v>
+        <v>-136.428</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>8771.268491</v>
+        <v>8771.2684910000007</v>
       </c>
       <c r="BE8" s="1">
-        <v>2.436463</v>
+        <v>2.4364629999999998</v>
       </c>
       <c r="BF8" s="1">
-        <v>1291.460000</v>
+        <v>1291.46</v>
       </c>
       <c r="BG8" s="1">
-        <v>-217.284000</v>
+        <v>-217.28399999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>8782.017810</v>
+        <v>8782.0178099999994</v>
       </c>
       <c r="BJ8" s="1">
-        <v>2.439449</v>
+        <v>2.4394490000000002</v>
       </c>
       <c r="BK8" s="1">
-        <v>1359.160000</v>
+        <v>1359.16</v>
       </c>
       <c r="BL8" s="1">
-        <v>-352.497000</v>
+        <v>-352.49700000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>8792.929763</v>
+        <v>8792.9297630000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>2.442480</v>
+        <v>2.4424800000000002</v>
       </c>
       <c r="BP8" s="1">
-        <v>1470.200000</v>
+        <v>1470.2</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-574.263000</v>
+        <v>-574.26300000000003</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>8803.375013</v>
+        <v>8803.3750130000008</v>
       </c>
       <c r="BT8" s="1">
-        <v>2.445382</v>
+        <v>2.4453819999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1599.380000</v>
+        <v>1599.38</v>
       </c>
       <c r="BV8" s="1">
-        <v>-826.171000</v>
+        <v>-826.17100000000005</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>8814.568232</v>
+        <v>8814.5682319999996</v>
       </c>
       <c r="BY8" s="1">
-        <v>2.448491</v>
+        <v>2.4484910000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1748.190000</v>
+        <v>1748.19</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1101.500000</v>
+        <v>-1101.5</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>8825.819976</v>
+        <v>8825.8199760000007</v>
       </c>
       <c r="CD8" s="1">
-        <v>2.451617</v>
+        <v>2.4516170000000002</v>
       </c>
       <c r="CE8" s="1">
-        <v>2163.770000</v>
+        <v>2163.77</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1771.580000</v>
+        <v>-1771.58</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>8655.803844</v>
       </c>
       <c r="B9" s="1">
-        <v>2.404390</v>
+        <v>2.4043899999999998</v>
       </c>
       <c r="C9" s="1">
-        <v>1142.390000</v>
+        <v>1142.3900000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-252.684000</v>
+        <v>-252.684</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>8666.229707</v>
+        <v>8666.2297070000004</v>
       </c>
       <c r="G9" s="1">
         <v>2.407286</v>
       </c>
       <c r="H9" s="1">
-        <v>1163.390000</v>
+        <v>1163.3900000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-213.184000</v>
+        <v>-213.184</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>8676.936877</v>
+        <v>8676.9368770000001</v>
       </c>
       <c r="L9" s="1">
-        <v>2.410260</v>
+        <v>2.4102600000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1191.880000</v>
+        <v>1191.8800000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-148.393000</v>
+        <v>-148.393</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>8687.285375</v>
+        <v>8687.2853749999995</v>
       </c>
       <c r="Q9" s="1">
         <v>2.413135</v>
       </c>
       <c r="R9" s="1">
-        <v>1199.380000</v>
+        <v>1199.3800000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-126.662000</v>
+        <v>-126.66200000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>8697.811473</v>
+        <v>8697.8114729999998</v>
       </c>
       <c r="V9" s="1">
-        <v>2.416059</v>
+        <v>2.4160590000000002</v>
       </c>
       <c r="W9" s="1">
-        <v>1206.750000</v>
+        <v>1206.75</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.228000</v>
+        <v>-106.22799999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>8708.274583</v>
+        <v>8708.2745830000003</v>
       </c>
       <c r="AA9" s="1">
         <v>2.418965</v>
       </c>
       <c r="AB9" s="1">
-        <v>1214.530000</v>
+        <v>1214.53</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.463900</v>
+        <v>-89.463899999999995</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>8718.802700</v>
+        <v>8718.8027000000002</v>
       </c>
       <c r="AF9" s="1">
-        <v>2.421890</v>
+        <v>2.4218899999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1219.050000</v>
+        <v>1219.05</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.108800</v>
+        <v>-85.108800000000002</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>8728.921544</v>
+        <v>8728.9215440000007</v>
       </c>
       <c r="AK9" s="1">
-        <v>2.424700</v>
+        <v>2.4247000000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1226.120000</v>
+        <v>1226.1199999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.401500</v>
+        <v>-88.401499999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>8739.940685</v>
+        <v>8739.9406849999996</v>
       </c>
       <c r="AP9" s="1">
-        <v>2.427761</v>
+        <v>2.4277609999999998</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1234.040000</v>
+        <v>1234.04</v>
       </c>
       <c r="AR9" s="1">
-        <v>-100.170000</v>
+        <v>-100.17</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>8750.626012</v>
+        <v>8750.6260120000006</v>
       </c>
       <c r="AU9" s="1">
-        <v>2.430729</v>
+        <v>2.4307289999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1243.900000</v>
+        <v>1243.9000000000001</v>
       </c>
       <c r="AW9" s="1">
-        <v>-119.201000</v>
+        <v>-119.20099999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>8760.991374</v>
+        <v>8760.9913739999993</v>
       </c>
       <c r="AZ9" s="1">
-        <v>2.433609</v>
+        <v>2.4336090000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1252.220000</v>
+        <v>1252.22</v>
       </c>
       <c r="BB9" s="1">
-        <v>-136.415000</v>
+        <v>-136.41499999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>8771.630560</v>
+        <v>8771.6305599999996</v>
       </c>
       <c r="BE9" s="1">
-        <v>2.436564</v>
+        <v>2.4365640000000002</v>
       </c>
       <c r="BF9" s="1">
-        <v>1291.460000</v>
+        <v>1291.46</v>
       </c>
       <c r="BG9" s="1">
-        <v>-217.287000</v>
+        <v>-217.28700000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>8782.393250</v>
+        <v>8782.3932499999992</v>
       </c>
       <c r="BJ9" s="1">
-        <v>2.439554</v>
+        <v>2.4395539999999998</v>
       </c>
       <c r="BK9" s="1">
-        <v>1359.140000</v>
+        <v>1359.14</v>
       </c>
       <c r="BL9" s="1">
-        <v>-352.482000</v>
+        <v>-352.48200000000003</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>8793.625651</v>
+        <v>8793.6256510000003</v>
       </c>
       <c r="BO9" s="1">
-        <v>2.442674</v>
+        <v>2.4426739999999998</v>
       </c>
       <c r="BP9" s="1">
-        <v>1470.170000</v>
+        <v>1470.17</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-574.295000</v>
+        <v>-574.29499999999996</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>8804.090245</v>
+        <v>8804.0902449999994</v>
       </c>
       <c r="BT9" s="1">
-        <v>2.445581</v>
+        <v>2.4455809999999998</v>
       </c>
       <c r="BU9" s="1">
-        <v>1599.350000</v>
+        <v>1599.35</v>
       </c>
       <c r="BV9" s="1">
-        <v>-826.284000</v>
+        <v>-826.28399999999999</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>8814.716536</v>
+        <v>8814.7165359999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>2.448532</v>
+        <v>2.4485320000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1748.060000</v>
+        <v>1748.06</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1101.380000</v>
+        <v>-1101.3800000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>8826.340281</v>
+        <v>8826.3402810000007</v>
       </c>
       <c r="CD9" s="1">
-        <v>2.451761</v>
+        <v>2.4517609999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>2163.970000</v>
+        <v>2163.9699999999998</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1771.700000</v>
+        <v>-1771.7</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>8656.214002</v>
+        <v>8656.2140020000006</v>
       </c>
       <c r="B10" s="1">
-        <v>2.404504</v>
+        <v>2.4045040000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>1142.240000</v>
+        <v>1142.24</v>
       </c>
       <c r="D10" s="1">
-        <v>-252.985000</v>
+        <v>-252.98500000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>8666.648828</v>
+        <v>8666.6488279999994</v>
       </c>
       <c r="G10" s="1">
-        <v>2.407402</v>
+        <v>2.4074019999999998</v>
       </c>
       <c r="H10" s="1">
-        <v>1163.540000</v>
+        <v>1163.54</v>
       </c>
       <c r="I10" s="1">
-        <v>-212.657000</v>
+        <v>-212.65700000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>8677.207660</v>
+        <v>8677.20766</v>
       </c>
       <c r="L10" s="1">
-        <v>2.410335</v>
+        <v>2.4103349999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1191.420000</v>
+        <v>1191.42</v>
       </c>
       <c r="N10" s="1">
-        <v>-148.290000</v>
+        <v>-148.29</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>8687.631119</v>
+        <v>8687.6311189999997</v>
       </c>
       <c r="Q10" s="1">
-        <v>2.413231</v>
+        <v>2.4132310000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1199.420000</v>
+        <v>1199.42</v>
       </c>
       <c r="S10" s="1">
-        <v>-126.649000</v>
+        <v>-126.649</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>8698.152721</v>
+        <v>8698.1527210000004</v>
       </c>
       <c r="V10" s="1">
-        <v>2.416154</v>
+        <v>2.4161540000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1206.790000</v>
+        <v>1206.79</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.299000</v>
+        <v>-106.29900000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>8708.624755</v>
+        <v>8708.6247550000007</v>
       </c>
       <c r="AA10" s="1">
-        <v>2.419062</v>
+        <v>2.4190619999999998</v>
       </c>
       <c r="AB10" s="1">
-        <v>1214.300000</v>
+        <v>1214.3</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.542600</v>
+        <v>-89.542599999999993</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>8719.146390</v>
+        <v>8719.1463899999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>2.421985</v>
+        <v>2.4219849999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>1219.130000</v>
+        <v>1219.1300000000001</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.149500</v>
+        <v>-85.149500000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>8729.616936</v>
+        <v>8729.6169360000004</v>
       </c>
       <c r="AK10" s="1">
-        <v>2.424894</v>
+        <v>2.4248940000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1226.150000</v>
+        <v>1226.1500000000001</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.419100</v>
+        <v>-88.4191</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>8740.318618</v>
+        <v>8740.3186179999993</v>
       </c>
       <c r="AP10" s="1">
-        <v>2.427866</v>
+        <v>2.4278659999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1234.020000</v>
+        <v>1234.02</v>
       </c>
       <c r="AR10" s="1">
-        <v>-100.163000</v>
+        <v>-100.163</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>8751.008892</v>
+        <v>8751.0088919999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>2.430836</v>
+        <v>2.4308360000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>1243.890000</v>
+        <v>1243.8900000000001</v>
       </c>
       <c r="AW10" s="1">
-        <v>-119.206000</v>
+        <v>-119.206</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>8761.368334</v>
+        <v>8761.3683340000007</v>
       </c>
       <c r="AZ10" s="1">
         <v>2.433713</v>
       </c>
       <c r="BA10" s="1">
-        <v>1252.170000</v>
+        <v>1252.17</v>
       </c>
       <c r="BB10" s="1">
-        <v>-136.445000</v>
+        <v>-136.44499999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>8772.289247</v>
+        <v>8772.2892470000006</v>
       </c>
       <c r="BE10" s="1">
         <v>2.436747</v>
       </c>
       <c r="BF10" s="1">
-        <v>1291.450000</v>
+        <v>1291.45</v>
       </c>
       <c r="BG10" s="1">
-        <v>-217.266000</v>
+        <v>-217.26599999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>8783.101041</v>
+        <v>8783.1010409999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>2.439750</v>
+        <v>2.4397500000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1359.130000</v>
+        <v>1359.13</v>
       </c>
       <c r="BL10" s="1">
-        <v>-352.543000</v>
+        <v>-352.54300000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>8793.746674</v>
@@ -2732,1949 +3148,1949 @@
         <v>2.442707</v>
       </c>
       <c r="BP10" s="1">
-        <v>1470.180000</v>
+        <v>1470.18</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-574.304000</v>
+        <v>-574.30399999999997</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>8804.219205</v>
+        <v>8804.2192049999994</v>
       </c>
       <c r="BT10" s="1">
-        <v>2.445616</v>
+        <v>2.4456159999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>1599.370000</v>
+        <v>1599.37</v>
       </c>
       <c r="BV10" s="1">
-        <v>-826.316000</v>
+        <v>-826.31600000000003</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>8815.140615</v>
+        <v>8815.1406150000003</v>
       </c>
       <c r="BY10" s="1">
-        <v>2.448650</v>
+        <v>2.4486500000000002</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1748.030000</v>
+        <v>1748.03</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1101.450000</v>
+        <v>-1101.45</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>8826.890343</v>
+        <v>8826.8903429999991</v>
       </c>
       <c r="CD10" s="1">
-        <v>2.451914</v>
+        <v>2.4519139999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>2163.840000</v>
+        <v>2163.84</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1772.780000</v>
+        <v>-1772.78</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>8656.507128</v>
+        <v>8656.5071279999993</v>
       </c>
       <c r="B11" s="1">
         <v>2.404585</v>
       </c>
       <c r="C11" s="1">
-        <v>1142.220000</v>
+        <v>1142.22</v>
       </c>
       <c r="D11" s="1">
-        <v>-252.780000</v>
+        <v>-252.78</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>8667.155770</v>
+        <v>8667.1557699999994</v>
       </c>
       <c r="G11" s="1">
         <v>2.407543</v>
       </c>
       <c r="H11" s="1">
-        <v>1163.720000</v>
+        <v>1163.72</v>
       </c>
       <c r="I11" s="1">
-        <v>-212.591000</v>
+        <v>-212.59100000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>8677.553900</v>
+        <v>8677.5539000000008</v>
       </c>
       <c r="L11" s="1">
-        <v>2.410432</v>
+        <v>2.4104320000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1191.680000</v>
+        <v>1191.68</v>
       </c>
       <c r="N11" s="1">
-        <v>-148.194000</v>
+        <v>-148.19399999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>8687.977327</v>
+        <v>8687.9773270000005</v>
       </c>
       <c r="Q11" s="1">
-        <v>2.413327</v>
+        <v>2.4133270000000002</v>
       </c>
       <c r="R11" s="1">
-        <v>1199.480000</v>
+        <v>1199.48</v>
       </c>
       <c r="S11" s="1">
-        <v>-126.719000</v>
+        <v>-126.71899999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>8698.496976</v>
+        <v>8698.4969760000004</v>
       </c>
       <c r="V11" s="1">
-        <v>2.416249</v>
+        <v>2.4162490000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1206.900000</v>
+        <v>1206.9000000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-106.318000</v>
+        <v>-106.318</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>8709.320147</v>
+        <v>8709.3201470000004</v>
       </c>
       <c r="AA11" s="1">
-        <v>2.419256</v>
+        <v>2.4192559999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1214.410000</v>
+        <v>1214.4100000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.388300</v>
+        <v>-89.388300000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>8719.833348</v>
+        <v>8719.8333480000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>2.422176</v>
+        <v>2.4221759999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1219.050000</v>
+        <v>1219.05</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.155300</v>
+        <v>-85.155299999999997</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>8729.965623</v>
+        <v>8729.9656230000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>2.424990</v>
+        <v>2.4249900000000002</v>
       </c>
       <c r="AL11" s="1">
-        <v>1226.180000</v>
+        <v>1226.18</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.419800</v>
+        <v>-88.419799999999995</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>8740.678249</v>
+        <v>8740.6782490000005</v>
       </c>
       <c r="AP11" s="1">
-        <v>2.427966</v>
+        <v>2.4279660000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1234.030000</v>
+        <v>1234.03</v>
       </c>
       <c r="AR11" s="1">
-        <v>-100.188000</v>
+        <v>-100.188</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>8751.374442</v>
+        <v>8751.3744420000003</v>
       </c>
       <c r="AU11" s="1">
-        <v>2.430937</v>
+        <v>2.4309370000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1243.890000</v>
+        <v>1243.8900000000001</v>
       </c>
       <c r="AW11" s="1">
-        <v>-119.224000</v>
+        <v>-119.224</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>8762.038461</v>
+        <v>8762.0384610000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>2.433900</v>
+        <v>2.4339</v>
       </c>
       <c r="BA11" s="1">
-        <v>1252.210000</v>
+        <v>1252.21</v>
       </c>
       <c r="BB11" s="1">
-        <v>-136.432000</v>
+        <v>-136.43199999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>8772.747583</v>
+        <v>8772.7475830000003</v>
       </c>
       <c r="BE11" s="1">
         <v>2.436874</v>
       </c>
       <c r="BF11" s="1">
-        <v>1291.450000</v>
+        <v>1291.45</v>
       </c>
       <c r="BG11" s="1">
-        <v>-217.300000</v>
+        <v>-217.3</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>8783.540994</v>
+        <v>8783.5409940000009</v>
       </c>
       <c r="BJ11" s="1">
-        <v>2.439872</v>
+        <v>2.4398719999999998</v>
       </c>
       <c r="BK11" s="1">
-        <v>1359.140000</v>
+        <v>1359.14</v>
       </c>
       <c r="BL11" s="1">
-        <v>-352.518000</v>
+        <v>-352.51799999999997</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>8794.171779</v>
+        <v>8794.1717790000002</v>
       </c>
       <c r="BO11" s="1">
         <v>2.442825</v>
       </c>
       <c r="BP11" s="1">
-        <v>1470.200000</v>
+        <v>1470.2</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-574.307000</v>
+        <v>-574.30700000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>8804.658661</v>
+        <v>8804.6586609999995</v>
       </c>
       <c r="BT11" s="1">
-        <v>2.445739</v>
+        <v>2.4457390000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1599.240000</v>
+        <v>1599.24</v>
       </c>
       <c r="BV11" s="1">
-        <v>-826.467000</v>
+        <v>-826.46699999999998</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>8815.564230</v>
+        <v>8815.56423</v>
       </c>
       <c r="BY11" s="1">
-        <v>2.448768</v>
+        <v>2.4487679999999998</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1748.110000</v>
+        <v>1748.11</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1101.590000</v>
+        <v>-1101.5899999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>8827.419574</v>
+        <v>8827.4195739999996</v>
       </c>
       <c r="CD11" s="1">
         <v>2.452061</v>
       </c>
       <c r="CE11" s="1">
-        <v>2163.180000</v>
+        <v>2163.1799999999998</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1771.260000</v>
+        <v>-1771.26</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>8656.850397</v>
+        <v>8656.8503970000002</v>
       </c>
       <c r="B12" s="1">
-        <v>2.404681</v>
+        <v>2.4046810000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1142.190000</v>
+        <v>1142.19</v>
       </c>
       <c r="D12" s="1">
-        <v>-252.954000</v>
+        <v>-252.95400000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>8667.506411</v>
+        <v>8667.5064110000003</v>
       </c>
       <c r="G12" s="1">
-        <v>2.407641</v>
+        <v>2.4076409999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1163.730000</v>
+        <v>1163.73</v>
       </c>
       <c r="I12" s="1">
-        <v>-212.941000</v>
+        <v>-212.941</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>8677.897632</v>
+        <v>8677.8976320000002</v>
       </c>
       <c r="L12" s="1">
-        <v>2.410527</v>
+        <v>2.4105270000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1191.490000</v>
+        <v>1191.49</v>
       </c>
       <c r="N12" s="1">
-        <v>-148.015000</v>
+        <v>-148.01499999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>8688.678638</v>
+        <v>8688.6786379999994</v>
       </c>
       <c r="Q12" s="1">
-        <v>2.413522</v>
+        <v>2.4135219999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1199.470000</v>
+        <v>1199.47</v>
       </c>
       <c r="S12" s="1">
-        <v>-126.737000</v>
+        <v>-126.73699999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>8699.183943</v>
       </c>
       <c r="V12" s="1">
-        <v>2.416440</v>
+        <v>2.4164400000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1206.840000</v>
+        <v>1206.8399999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.281000</v>
+        <v>-106.28100000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>8709.672801</v>
+        <v>8709.6728010000006</v>
       </c>
       <c r="AA12" s="1">
-        <v>2.419354</v>
+        <v>2.4193539999999998</v>
       </c>
       <c r="AB12" s="1">
-        <v>1214.350000</v>
+        <v>1214.3499999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.484200</v>
+        <v>-89.484200000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>8720.176084</v>
+        <v>8720.1760840000006</v>
       </c>
       <c r="AF12" s="1">
-        <v>2.422271</v>
+        <v>2.4222709999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>1219.080000</v>
+        <v>1219.08</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.105600</v>
+        <v>-85.105599999999995</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>8730.314808</v>
+        <v>8730.3148079999992</v>
       </c>
       <c r="AK12" s="1">
         <v>2.425087</v>
       </c>
       <c r="AL12" s="1">
-        <v>1226.140000</v>
+        <v>1226.1400000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.442400</v>
+        <v>-88.442400000000006</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>8741.346824</v>
+        <v>8741.3468240000002</v>
       </c>
       <c r="AP12" s="1">
-        <v>2.428152</v>
+        <v>2.4281519999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1234.050000</v>
+        <v>1234.05</v>
       </c>
       <c r="AR12" s="1">
-        <v>-100.148000</v>
+        <v>-100.148</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>8752.058464</v>
+        <v>8752.0584639999997</v>
       </c>
       <c r="AU12" s="1">
         <v>2.431127</v>
       </c>
       <c r="AV12" s="1">
-        <v>1243.850000</v>
+        <v>1243.8499999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-119.209000</v>
+        <v>-119.209</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>8762.456059</v>
+        <v>8762.4560590000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>2.434016</v>
+        <v>2.4340160000000002</v>
       </c>
       <c r="BA12" s="1">
-        <v>1252.230000</v>
+        <v>1252.23</v>
       </c>
       <c r="BB12" s="1">
-        <v>-136.420000</v>
+        <v>-136.41999999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>8773.109630</v>
+        <v>8773.1096300000008</v>
       </c>
       <c r="BE12" s="1">
-        <v>2.436975</v>
+        <v>2.4369749999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1291.440000</v>
+        <v>1291.44</v>
       </c>
       <c r="BG12" s="1">
-        <v>-217.252000</v>
+        <v>-217.25200000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>8783.945233</v>
+        <v>8783.9452330000004</v>
       </c>
       <c r="BJ12" s="1">
-        <v>2.439985</v>
+        <v>2.4399850000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1359.150000</v>
+        <v>1359.15</v>
       </c>
       <c r="BL12" s="1">
-        <v>-352.506000</v>
+        <v>-352.50599999999997</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>8794.571025</v>
+        <v>8794.5710249999993</v>
       </c>
       <c r="BO12" s="1">
         <v>2.442936</v>
       </c>
       <c r="BP12" s="1">
-        <v>1470.220000</v>
+        <v>1470.22</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-574.256000</v>
+        <v>-574.25599999999997</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>8805.084229</v>
+        <v>8805.0842290000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>2.445857</v>
+        <v>2.4458570000000002</v>
       </c>
       <c r="BU12" s="1">
-        <v>1599.200000</v>
+        <v>1599.2</v>
       </c>
       <c r="BV12" s="1">
-        <v>-826.561000</v>
+        <v>-826.56100000000004</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>8815.981829</v>
+        <v>8815.9818290000003</v>
       </c>
       <c r="BY12" s="1">
-        <v>2.448884</v>
+        <v>2.4488840000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1748.230000</v>
+        <v>1748.23</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1101.520000</v>
+        <v>-1101.52</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>8827.936928</v>
+        <v>8827.9369279999992</v>
       </c>
       <c r="CD12" s="1">
-        <v>2.452205</v>
+        <v>2.4522050000000002</v>
       </c>
       <c r="CE12" s="1">
-        <v>2161.080000</v>
+        <v>2161.08</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1771.880000</v>
+        <v>-1771.88</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>8657.193095</v>
+        <v>8657.1930950000005</v>
       </c>
       <c r="B13" s="1">
         <v>2.404776</v>
       </c>
       <c r="C13" s="1">
-        <v>1142.570000</v>
+        <v>1142.57</v>
       </c>
       <c r="D13" s="1">
-        <v>-252.759000</v>
+        <v>-252.75899999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>8668.149225</v>
+        <v>8668.1492249999992</v>
       </c>
       <c r="G13" s="1">
-        <v>2.407819</v>
+        <v>2.4078189999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1163.750000</v>
+        <v>1163.75</v>
       </c>
       <c r="I13" s="1">
-        <v>-213.047000</v>
+        <v>-213.047</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>8678.591500</v>
+        <v>8678.5915000000005</v>
       </c>
       <c r="L13" s="1">
-        <v>2.410720</v>
+        <v>2.41072</v>
       </c>
       <c r="M13" s="1">
-        <v>1191.490000</v>
+        <v>1191.49</v>
       </c>
       <c r="N13" s="1">
-        <v>-148.084000</v>
+        <v>-148.084</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>8689.025374</v>
+        <v>8689.0253740000007</v>
       </c>
       <c r="Q13" s="1">
         <v>2.413618</v>
       </c>
       <c r="R13" s="1">
-        <v>1199.380000</v>
+        <v>1199.3800000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-126.752000</v>
+        <v>-126.752</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>8699.530144</v>
+        <v>8699.5301440000003</v>
       </c>
       <c r="V13" s="1">
-        <v>2.416536</v>
+        <v>2.4165359999999998</v>
       </c>
       <c r="W13" s="1">
-        <v>1206.780000</v>
+        <v>1206.78</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.289000</v>
+        <v>-106.289</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>8710.020033</v>
+        <v>8710.0200330000007</v>
       </c>
       <c r="AA13" s="1">
-        <v>2.419450</v>
+        <v>2.4194499999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1214.430000</v>
+        <v>1214.43</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.635000</v>
+        <v>-89.635000000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>8720.815427</v>
+        <v>8720.8154269999995</v>
       </c>
       <c r="AF13" s="1">
-        <v>2.422449</v>
+        <v>2.4224489999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1219.080000</v>
+        <v>1219.08</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.141100</v>
+        <v>-85.141099999999994</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>8730.968566</v>
+        <v>8730.9685659999996</v>
       </c>
       <c r="AK13" s="1">
-        <v>2.425269</v>
+        <v>2.4252690000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1226.150000</v>
+        <v>1226.1500000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.422200</v>
+        <v>-88.422200000000004</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>8741.758536</v>
+        <v>8741.7585359999994</v>
       </c>
       <c r="AP13" s="1">
-        <v>2.428266</v>
+        <v>2.4282659999999998</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1234.020000</v>
+        <v>1234.02</v>
       </c>
       <c r="AR13" s="1">
-        <v>-100.161000</v>
+        <v>-100.161</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>8752.504329</v>
+        <v>8752.5043289999994</v>
       </c>
       <c r="AU13" s="1">
-        <v>2.431251</v>
+        <v>2.4312510000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1243.860000</v>
+        <v>1243.8599999999999</v>
       </c>
       <c r="AW13" s="1">
-        <v>-119.199000</v>
+        <v>-119.199</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>8762.832068</v>
+        <v>8762.8320679999997</v>
       </c>
       <c r="AZ13" s="1">
-        <v>2.434120</v>
+        <v>2.4341200000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1252.200000</v>
+        <v>1252.2</v>
       </c>
       <c r="BB13" s="1">
-        <v>-136.426000</v>
+        <v>-136.42599999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>8773.473199</v>
       </c>
       <c r="BE13" s="1">
-        <v>2.437076</v>
+        <v>2.4370759999999998</v>
       </c>
       <c r="BF13" s="1">
-        <v>1291.450000</v>
+        <v>1291.45</v>
       </c>
       <c r="BG13" s="1">
-        <v>-217.233000</v>
+        <v>-217.233</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>8784.319216</v>
+        <v>8784.3192159999999</v>
       </c>
       <c r="BJ13" s="1">
         <v>2.440089</v>
       </c>
       <c r="BK13" s="1">
-        <v>1359.140000</v>
+        <v>1359.14</v>
       </c>
       <c r="BL13" s="1">
-        <v>-352.524000</v>
+        <v>-352.524</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>8794.981746</v>
+        <v>8794.9817459999995</v>
       </c>
       <c r="BO13" s="1">
-        <v>2.443050</v>
+        <v>2.4430499999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1470.180000</v>
+        <v>1470.18</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-574.280000</v>
+        <v>-574.28</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>8805.498387</v>
+        <v>8805.4983869999996</v>
       </c>
       <c r="BT13" s="1">
-        <v>2.445972</v>
+        <v>2.4459719999999998</v>
       </c>
       <c r="BU13" s="1">
-        <v>1599.200000</v>
+        <v>1599.2</v>
       </c>
       <c r="BV13" s="1">
-        <v>-826.658000</v>
+        <v>-826.65800000000002</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>8816.428228</v>
+        <v>8816.4282280000007</v>
       </c>
       <c r="BY13" s="1">
-        <v>2.449008</v>
+        <v>2.4490080000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1748.210000</v>
+        <v>1748.21</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1101.430000</v>
+        <v>-1101.43</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>8828.455221</v>
+        <v>8828.4552210000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>2.452349</v>
+        <v>2.4523489999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>2162.190000</v>
+        <v>2162.19</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1774.100000</v>
+        <v>-1774.1</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>8657.874102</v>
+        <v>8657.8741019999998</v>
       </c>
       <c r="B14" s="1">
-        <v>2.404965</v>
+        <v>2.4049649999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>1142.490000</v>
+        <v>1142.49</v>
       </c>
       <c r="D14" s="1">
-        <v>-252.642000</v>
+        <v>-252.642</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>8668.538616</v>
+        <v>8668.5386159999998</v>
       </c>
       <c r="G14" s="1">
-        <v>2.407927</v>
+        <v>2.4079269999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1163.530000</v>
+        <v>1163.53</v>
       </c>
       <c r="I14" s="1">
-        <v>-212.993000</v>
+        <v>-212.99299999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>8678.935724</v>
+        <v>8678.9357240000008</v>
       </c>
       <c r="L14" s="1">
-        <v>2.410815</v>
+        <v>2.4108149999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1191.420000</v>
+        <v>1191.42</v>
       </c>
       <c r="N14" s="1">
-        <v>-148.275000</v>
+        <v>-148.27500000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>8689.375517</v>
+        <v>8689.3755170000004</v>
       </c>
       <c r="Q14" s="1">
-        <v>2.413715</v>
+        <v>2.4137149999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>1199.380000</v>
+        <v>1199.3800000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-126.670000</v>
+        <v>-126.67</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>8699.873838</v>
+        <v>8699.8738379999995</v>
       </c>
       <c r="V14" s="1">
-        <v>2.416632</v>
+        <v>2.4166319999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1206.790000</v>
+        <v>1206.79</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.201000</v>
+        <v>-106.20099999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>8710.661328</v>
+        <v>8710.6613280000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>2.419628</v>
+        <v>2.4196279999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1214.350000</v>
+        <v>1214.3499999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.629700</v>
+        <v>-89.6297</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>8721.206274</v>
+        <v>8721.2062740000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>2.422557</v>
+        <v>2.4225569999999998</v>
       </c>
       <c r="AG14" s="1">
-        <v>1219.070000</v>
+        <v>1219.07</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.063700</v>
+        <v>-85.063699999999997</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>8731.361398</v>
+        <v>8731.3613979999991</v>
       </c>
       <c r="AK14" s="1">
-        <v>2.425378</v>
+        <v>2.4253779999999998</v>
       </c>
       <c r="AL14" s="1">
-        <v>1226.130000</v>
+        <v>1226.1300000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.437200</v>
+        <v>-88.437200000000004</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>8742.143398</v>
+        <v>8742.1433980000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>2.428373</v>
+        <v>2.4283730000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1234.010000</v>
+        <v>1234.01</v>
       </c>
       <c r="AR14" s="1">
-        <v>-100.148000</v>
+        <v>-100.148</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>8752.868392</v>
+        <v>8752.8683920000003</v>
       </c>
       <c r="AU14" s="1">
         <v>2.431352</v>
       </c>
       <c r="AV14" s="1">
-        <v>1243.890000</v>
+        <v>1243.8900000000001</v>
       </c>
       <c r="AW14" s="1">
-        <v>-119.227000</v>
+        <v>-119.227</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>8763.218939</v>
+        <v>8763.2189390000003</v>
       </c>
       <c r="AZ14" s="1">
-        <v>2.434227</v>
+        <v>2.4342269999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1252.210000</v>
+        <v>1252.21</v>
       </c>
       <c r="BB14" s="1">
-        <v>-136.434000</v>
+        <v>-136.434</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>8773.888349</v>
+        <v>8773.8883490000007</v>
       </c>
       <c r="BE14" s="1">
-        <v>2.437191</v>
+        <v>2.4371909999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1291.460000</v>
+        <v>1291.46</v>
       </c>
       <c r="BG14" s="1">
-        <v>-217.267000</v>
+        <v>-217.267</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>8784.730399</v>
       </c>
       <c r="BJ14" s="1">
-        <v>2.440203</v>
+        <v>2.4402029999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1359.140000</v>
+        <v>1359.14</v>
       </c>
       <c r="BL14" s="1">
-        <v>-352.564000</v>
+        <v>-352.56400000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>8795.386944</v>
+        <v>8795.3869439999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>2.443163</v>
+        <v>2.4431630000000002</v>
       </c>
       <c r="BP14" s="1">
-        <v>1470.150000</v>
+        <v>1470.15</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-574.334000</v>
+        <v>-574.33399999999995</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>8805.926962</v>
+        <v>8805.9269619999995</v>
       </c>
       <c r="BT14" s="1">
         <v>2.446091</v>
       </c>
       <c r="BU14" s="1">
-        <v>1598.980000</v>
+        <v>1598.98</v>
       </c>
       <c r="BV14" s="1">
-        <v>-826.756000</v>
+        <v>-826.75599999999997</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>8816.848340</v>
+        <v>8816.8483400000005</v>
       </c>
       <c r="BY14" s="1">
         <v>2.449125</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1748.070000</v>
+        <v>1748.07</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1101.650000</v>
+        <v>-1101.6500000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>8828.975524</v>
+        <v>8828.9755239999995</v>
       </c>
       <c r="CD14" s="1">
         <v>2.452493</v>
       </c>
       <c r="CE14" s="1">
-        <v>2161.700000</v>
+        <v>2161.6999999999998</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1773.570000</v>
+        <v>-1773.57</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>8658.217366</v>
+        <v>8658.2173660000008</v>
       </c>
       <c r="B15" s="1">
-        <v>2.405060</v>
+        <v>2.4050600000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>1142.480000</v>
+        <v>1142.48</v>
       </c>
       <c r="D15" s="1">
-        <v>-253.046000</v>
+        <v>-253.04599999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>8668.886777</v>
+        <v>8668.8867769999997</v>
       </c>
       <c r="G15" s="1">
-        <v>2.408024</v>
+        <v>2.4080240000000002</v>
       </c>
       <c r="H15" s="1">
-        <v>1163.860000</v>
+        <v>1163.8599999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-213.091000</v>
+        <v>-213.09100000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>8679.282923</v>
+        <v>8679.2829230000007</v>
       </c>
       <c r="L15" s="1">
-        <v>2.410912</v>
+        <v>2.4109120000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>1191.700000</v>
+        <v>1191.7</v>
       </c>
       <c r="N15" s="1">
-        <v>-148.075000</v>
+        <v>-148.07499999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>8690.033213</v>
+        <v>8690.0332130000006</v>
       </c>
       <c r="Q15" s="1">
-        <v>2.413898</v>
+        <v>2.4138980000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1199.470000</v>
+        <v>1199.47</v>
       </c>
       <c r="S15" s="1">
-        <v>-126.655000</v>
+        <v>-126.655</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>8700.533022</v>
+        <v>8700.5330219999996</v>
       </c>
       <c r="V15" s="1">
-        <v>2.416815</v>
+        <v>2.4168150000000002</v>
       </c>
       <c r="W15" s="1">
-        <v>1206.760000</v>
+        <v>1206.76</v>
       </c>
       <c r="X15" s="1">
-        <v>-106.196000</v>
+        <v>-106.196</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>8711.066064</v>
+        <v>8711.0660640000006</v>
       </c>
       <c r="AA15" s="1">
-        <v>2.419741</v>
+        <v>2.4197410000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>1214.280000</v>
+        <v>1214.28</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.561900</v>
+        <v>-89.561899999999994</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>8721.549506</v>
+        <v>8721.5495059999994</v>
       </c>
       <c r="AF15" s="1">
-        <v>2.422653</v>
+        <v>2.4226529999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1219.060000</v>
+        <v>1219.06</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.096200</v>
+        <v>-85.096199999999996</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>8731.706814</v>
+        <v>8731.7068139999992</v>
       </c>
       <c r="AK15" s="1">
-        <v>2.425474</v>
+        <v>2.4254739999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1226.140000</v>
+        <v>1226.1400000000001</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.423500</v>
+        <v>-88.423500000000004</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>8742.501543</v>
+        <v>8742.5015430000003</v>
       </c>
       <c r="AP15" s="1">
-        <v>2.428473</v>
+        <v>2.4284729999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1234.040000</v>
+        <v>1234.04</v>
       </c>
       <c r="AR15" s="1">
-        <v>-100.148000</v>
+        <v>-100.148</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>8753.233449</v>
+        <v>8753.2334489999994</v>
       </c>
       <c r="AU15" s="1">
         <v>2.431454</v>
       </c>
       <c r="AV15" s="1">
-        <v>1243.920000</v>
+        <v>1243.92</v>
       </c>
       <c r="AW15" s="1">
-        <v>-119.203000</v>
+        <v>-119.203</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>8763.633563</v>
+        <v>8763.6335629999994</v>
       </c>
       <c r="AZ15" s="1">
-        <v>2.434343</v>
+        <v>2.4343430000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1252.220000</v>
+        <v>1252.22</v>
       </c>
       <c r="BB15" s="1">
-        <v>-136.433000</v>
+        <v>-136.43299999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>8774.193884</v>
+        <v>8774.1938840000003</v>
       </c>
       <c r="BE15" s="1">
-        <v>2.437276</v>
+        <v>2.4372760000000002</v>
       </c>
       <c r="BF15" s="1">
-        <v>1291.450000</v>
+        <v>1291.45</v>
       </c>
       <c r="BG15" s="1">
-        <v>-217.249000</v>
+        <v>-217.249</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>8785.098926</v>
+        <v>8785.0989260000006</v>
       </c>
       <c r="BJ15" s="1">
-        <v>2.440305</v>
+        <v>2.4403049999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1359.190000</v>
+        <v>1359.19</v>
       </c>
       <c r="BL15" s="1">
-        <v>-352.503000</v>
+        <v>-352.50299999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>8795.785232</v>
+        <v>8795.7852320000002</v>
       </c>
       <c r="BO15" s="1">
-        <v>2.443274</v>
+        <v>2.4432740000000002</v>
       </c>
       <c r="BP15" s="1">
-        <v>1470.170000</v>
+        <v>1470.17</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-574.296000</v>
+        <v>-574.29600000000005</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>8806.345058</v>
+        <v>8806.3450580000008</v>
       </c>
       <c r="BT15" s="1">
-        <v>2.446207</v>
+        <v>2.4462069999999998</v>
       </c>
       <c r="BU15" s="1">
-        <v>1598.990000</v>
+        <v>1598.99</v>
       </c>
       <c r="BV15" s="1">
-        <v>-826.710000</v>
+        <v>-826.71</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>8817.274405</v>
+        <v>8817.2744050000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>2.449243</v>
+        <v>2.4492430000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1748.190000</v>
+        <v>1748.19</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1101.530000</v>
+        <v>-1101.53</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>8829.523107</v>
+        <v>8829.5231070000009</v>
       </c>
       <c r="CD15" s="1">
         <v>2.452645</v>
       </c>
       <c r="CE15" s="1">
-        <v>2161.350000</v>
+        <v>2161.35</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1772.460000</v>
+        <v>-1772.46</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>8658.561557</v>
+        <v>8658.5615570000009</v>
       </c>
       <c r="B16" s="1">
-        <v>2.405156</v>
+        <v>2.4051559999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>1142.230000</v>
+        <v>1142.23</v>
       </c>
       <c r="D16" s="1">
-        <v>-252.997000</v>
+        <v>-252.99700000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>8669.533559</v>
+        <v>8669.5335589999995</v>
       </c>
       <c r="G16" s="1">
         <v>2.408204</v>
       </c>
       <c r="H16" s="1">
-        <v>1163.920000</v>
+        <v>1163.92</v>
       </c>
       <c r="I16" s="1">
-        <v>-212.892000</v>
+        <v>-212.892</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>8679.926761</v>
+        <v>8679.9267610000006</v>
       </c>
       <c r="L16" s="1">
-        <v>2.411091</v>
+        <v>2.4110909999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1191.480000</v>
+        <v>1191.48</v>
       </c>
       <c r="N16" s="1">
-        <v>-148.006000</v>
+        <v>-148.006</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>8690.421084</v>
+        <v>8690.4210839999996</v>
       </c>
       <c r="Q16" s="1">
-        <v>2.414006</v>
+        <v>2.4140060000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1199.480000</v>
+        <v>1199.48</v>
       </c>
       <c r="S16" s="1">
-        <v>-126.677000</v>
+        <v>-126.67700000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>8700.911470</v>
+        <v>8700.9114699999991</v>
       </c>
       <c r="V16" s="1">
-        <v>2.416920</v>
+        <v>2.4169200000000002</v>
       </c>
       <c r="W16" s="1">
-        <v>1206.700000</v>
+        <v>1206.7</v>
       </c>
       <c r="X16" s="1">
-        <v>-106.277000</v>
+        <v>-106.277</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>8711.414287</v>
+        <v>8711.4142869999996</v>
       </c>
       <c r="AA16" s="1">
-        <v>2.419837</v>
+        <v>2.4198369999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>1214.390000</v>
+        <v>1214.3900000000001</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.583700</v>
+        <v>-89.583699999999993</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>8721.893729</v>
+        <v>8721.8937289999994</v>
       </c>
       <c r="AF16" s="1">
-        <v>2.422748</v>
+        <v>2.4227479999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1219.060000</v>
+        <v>1219.06</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.130100</v>
+        <v>-85.130099999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>8732.060755</v>
+        <v>8732.0607550000004</v>
       </c>
       <c r="AK16" s="1">
-        <v>2.425572</v>
+        <v>2.4255719999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>1226.170000</v>
+        <v>1226.17</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.401200</v>
+        <v>-88.401200000000003</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>8742.934518</v>
       </c>
       <c r="AP16" s="1">
-        <v>2.428593</v>
+        <v>2.4285929999999998</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1234.030000</v>
+        <v>1234.03</v>
       </c>
       <c r="AR16" s="1">
-        <v>-100.142000</v>
+        <v>-100.142</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>8753.648135</v>
+        <v>8753.6481349999995</v>
       </c>
       <c r="AU16" s="1">
-        <v>2.431569</v>
+        <v>2.4315690000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1243.900000</v>
+        <v>1243.9000000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-119.215000</v>
+        <v>-119.215</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>8763.937114</v>
+        <v>8763.9371140000003</v>
       </c>
       <c r="AZ16" s="1">
-        <v>2.434427</v>
+        <v>2.4344269999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1252.210000</v>
+        <v>1252.21</v>
       </c>
       <c r="BB16" s="1">
-        <v>-136.439000</v>
+        <v>-136.43899999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>8774.554972</v>
+        <v>8774.5549719999999</v>
       </c>
       <c r="BE16" s="1">
         <v>2.437376</v>
       </c>
       <c r="BF16" s="1">
-        <v>1291.460000</v>
+        <v>1291.46</v>
       </c>
       <c r="BG16" s="1">
-        <v>-217.234000</v>
+        <v>-217.23400000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>8785.473405</v>
+        <v>8785.4734050000006</v>
       </c>
       <c r="BJ16" s="1">
-        <v>2.440409</v>
+        <v>2.4404089999999998</v>
       </c>
       <c r="BK16" s="1">
-        <v>1359.150000</v>
+        <v>1359.15</v>
       </c>
       <c r="BL16" s="1">
-        <v>-352.535000</v>
+        <v>-352.53500000000003</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>8796.204879</v>
+        <v>8796.2048790000008</v>
       </c>
       <c r="BO16" s="1">
-        <v>2.443390</v>
+        <v>2.44339</v>
       </c>
       <c r="BP16" s="1">
-        <v>1470.230000</v>
+        <v>1470.23</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-574.232000</v>
+        <v>-574.23199999999997</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>8806.768641</v>
+        <v>8806.7686410000006</v>
       </c>
       <c r="BT16" s="1">
-        <v>2.446325</v>
+        <v>2.4463249999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1598.840000</v>
+        <v>1598.84</v>
       </c>
       <c r="BV16" s="1">
-        <v>-826.806000</v>
+        <v>-826.80600000000004</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>8817.718356</v>
+        <v>8817.7183559999994</v>
       </c>
       <c r="BY16" s="1">
-        <v>2.449366</v>
+        <v>2.4493659999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1748.340000</v>
+        <v>1748.34</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1101.310000</v>
+        <v>-1101.31</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>8830.053826</v>
+        <v>8830.0538259999994</v>
       </c>
       <c r="CD16" s="1">
-        <v>2.452793</v>
+        <v>2.4527929999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>2162.780000</v>
+        <v>2162.7800000000002</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1774.110000</v>
+        <v>-1774.11</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>8659.215286</v>
+        <v>8659.2152860000006</v>
       </c>
       <c r="B17" s="1">
         <v>2.405338</v>
       </c>
       <c r="C17" s="1">
-        <v>1142.340000</v>
+        <v>1142.3399999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-253.142000</v>
+        <v>-253.142</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>8669.917958</v>
       </c>
       <c r="G17" s="1">
-        <v>2.408311</v>
+        <v>2.4083109999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1164.020000</v>
+        <v>1164.02</v>
       </c>
       <c r="I17" s="1">
-        <v>-212.171000</v>
+        <v>-212.17099999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>8680.320056</v>
+        <v>8680.3200560000005</v>
       </c>
       <c r="L17" s="1">
-        <v>2.411200</v>
+        <v>2.4112</v>
       </c>
       <c r="M17" s="1">
-        <v>1192.010000</v>
+        <v>1192.01</v>
       </c>
       <c r="N17" s="1">
-        <v>-148.127000</v>
+        <v>-148.12700000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>8690.768284</v>
+        <v>8690.7682839999998</v>
       </c>
       <c r="Q17" s="1">
-        <v>2.414102</v>
+        <v>2.4141020000000002</v>
       </c>
       <c r="R17" s="1">
-        <v>1199.440000</v>
+        <v>1199.44</v>
       </c>
       <c r="S17" s="1">
-        <v>-126.738000</v>
+        <v>-126.738</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>8701.257180</v>
+        <v>8701.2571800000005</v>
       </c>
       <c r="V17" s="1">
-        <v>2.417016</v>
+        <v>2.4170159999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>1206.780000</v>
+        <v>1206.78</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.284000</v>
+        <v>-106.28400000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>8711.762975</v>
+        <v>8711.7629749999996</v>
       </c>
       <c r="AA17" s="1">
         <v>2.419934</v>
       </c>
       <c r="AB17" s="1">
-        <v>1214.350000</v>
+        <v>1214.3499999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.635400</v>
+        <v>-89.635400000000004</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>8722.300450</v>
+        <v>8722.3004500000006</v>
       </c>
       <c r="AF17" s="1">
-        <v>2.422861</v>
+        <v>2.4228610000000002</v>
       </c>
       <c r="AG17" s="1">
-        <v>1219.030000</v>
+        <v>1219.03</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.153000</v>
+        <v>-85.153000000000006</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>8732.477893</v>
+        <v>8732.4778929999993</v>
       </c>
       <c r="AK17" s="1">
-        <v>2.425688</v>
+        <v>2.4256880000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1226.150000</v>
+        <v>1226.1500000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.430000</v>
+        <v>-88.43</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>8743.223190</v>
+        <v>8743.2231900000006</v>
       </c>
       <c r="AP17" s="1">
-        <v>2.428673</v>
+        <v>2.4286729999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1234.020000</v>
+        <v>1234.02</v>
       </c>
       <c r="AR17" s="1">
-        <v>-100.155000</v>
+        <v>-100.155</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>8753.960622</v>
+        <v>8753.9606220000005</v>
       </c>
       <c r="AU17" s="1">
-        <v>2.431656</v>
+        <v>2.4316559999999998</v>
       </c>
       <c r="AV17" s="1">
-        <v>1243.890000</v>
+        <v>1243.8900000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-119.225000</v>
+        <v>-119.22499999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>8764.296745</v>
+        <v>8764.2967449999996</v>
       </c>
       <c r="AZ17" s="1">
-        <v>2.434527</v>
+        <v>2.4345270000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1252.230000</v>
+        <v>1252.23</v>
       </c>
       <c r="BB17" s="1">
-        <v>-136.453000</v>
+        <v>-136.453</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>8774.915596</v>
+        <v>8774.9155960000007</v>
       </c>
       <c r="BE17" s="1">
-        <v>2.437477</v>
+        <v>2.4374769999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1291.430000</v>
+        <v>1291.43</v>
       </c>
       <c r="BG17" s="1">
-        <v>-217.261000</v>
+        <v>-217.261</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>8785.849373</v>
+        <v>8785.8493729999991</v>
       </c>
       <c r="BJ17" s="1">
-        <v>2.440514</v>
+        <v>2.4405139999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1359.170000</v>
+        <v>1359.17</v>
       </c>
       <c r="BL17" s="1">
-        <v>-352.535000</v>
+        <v>-352.53500000000003</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>8796.615536</v>
+        <v>8796.6155359999993</v>
       </c>
       <c r="BO17" s="1">
-        <v>2.443504</v>
+        <v>2.4435039999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1470.170000</v>
+        <v>1470.17</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-574.298000</v>
+        <v>-574.298</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>8807.197185</v>
+        <v>8807.1971850000009</v>
       </c>
       <c r="BT17" s="1">
-        <v>2.446444</v>
+        <v>2.4464440000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1598.810000</v>
+        <v>1598.81</v>
       </c>
       <c r="BV17" s="1">
-        <v>-826.712000</v>
+        <v>-826.71199999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>8818.154306</v>
+        <v>8818.1543060000004</v>
       </c>
       <c r="BY17" s="1">
         <v>2.449487</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1748.280000</v>
+        <v>1748.28</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1101.410000</v>
+        <v>-1101.4100000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>8830.570163</v>
+        <v>8830.5701630000003</v>
       </c>
       <c r="CD17" s="1">
-        <v>2.452936</v>
+        <v>2.4529359999999998</v>
       </c>
       <c r="CE17" s="1">
-        <v>2164.310000</v>
+        <v>2164.31</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1772.600000</v>
+        <v>-1772.6</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>8659.583812</v>
+        <v>8659.5838120000008</v>
       </c>
       <c r="B18" s="1">
-        <v>2.405440</v>
+        <v>2.40544</v>
       </c>
       <c r="C18" s="1">
-        <v>1142.130000</v>
+        <v>1142.1300000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-253.141000</v>
+        <v>-253.14099999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>8670.267142</v>
+        <v>8670.2671420000006</v>
       </c>
       <c r="G18" s="1">
-        <v>2.408408</v>
+        <v>2.4084080000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1163.120000</v>
+        <v>1163.1199999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-212.304000</v>
+        <v>-212.304</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>8680.663320</v>
+        <v>8680.6633199999997</v>
       </c>
       <c r="L18" s="1">
         <v>2.411295</v>
       </c>
       <c r="M18" s="1">
-        <v>1191.850000</v>
+        <v>1191.8499999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-147.847000</v>
+        <v>-147.84700000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>8691.117466</v>
+        <v>8691.1174659999997</v>
       </c>
       <c r="Q18" s="1">
         <v>2.414199</v>
       </c>
       <c r="R18" s="1">
-        <v>1199.400000</v>
+        <v>1199.4000000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-126.696000</v>
+        <v>-126.696</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>8701.601406</v>
+        <v>8701.6014059999998</v>
       </c>
       <c r="V18" s="1">
-        <v>2.417112</v>
+        <v>2.4171119999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1206.780000</v>
+        <v>1206.78</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.288000</v>
+        <v>-106.288</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>8712.189502</v>
+        <v>8712.1895019999993</v>
       </c>
       <c r="AA18" s="1">
-        <v>2.420053</v>
+        <v>2.4200529999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>1214.330000</v>
+        <v>1214.33</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.418700</v>
+        <v>-89.418700000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>8722.580688</v>
@@ -4683,2221 +5099,2222 @@
         <v>2.422939</v>
       </c>
       <c r="AG18" s="1">
-        <v>1219.070000</v>
+        <v>1219.07</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.135700</v>
+        <v>-85.1357</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>8732.762067</v>
+        <v>8732.7620669999997</v>
       </c>
       <c r="AK18" s="1">
         <v>2.425767</v>
       </c>
       <c r="AL18" s="1">
-        <v>1226.150000</v>
+        <v>1226.1500000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.411300</v>
+        <v>-88.411299999999997</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>8743.585268</v>
+        <v>8743.5852680000007</v>
       </c>
       <c r="AP18" s="1">
-        <v>2.428774</v>
+        <v>2.4287740000000002</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1234.020000</v>
+        <v>1234.02</v>
       </c>
       <c r="AR18" s="1">
-        <v>-100.155000</v>
+        <v>-100.155</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>8754.328615</v>
+        <v>8754.3286150000004</v>
       </c>
       <c r="AU18" s="1">
-        <v>2.431758</v>
+        <v>2.4317579999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1243.860000</v>
+        <v>1243.8599999999999</v>
       </c>
       <c r="AW18" s="1">
-        <v>-119.208000</v>
+        <v>-119.208</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>8764.656809</v>
+        <v>8764.6568090000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>2.434627</v>
+        <v>2.4346269999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1252.210000</v>
+        <v>1252.21</v>
       </c>
       <c r="BB18" s="1">
-        <v>-136.438000</v>
+        <v>-136.43799999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>8775.637739</v>
+        <v>8775.6377389999998</v>
       </c>
       <c r="BE18" s="1">
-        <v>2.437677</v>
+        <v>2.4376769999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1291.470000</v>
+        <v>1291.47</v>
       </c>
       <c r="BG18" s="1">
-        <v>-217.241000</v>
+        <v>-217.24100000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>8786.599821</v>
+        <v>8786.5998209999998</v>
       </c>
       <c r="BJ18" s="1">
-        <v>2.440722</v>
+        <v>2.4407220000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1359.150000</v>
+        <v>1359.15</v>
       </c>
       <c r="BL18" s="1">
-        <v>-352.517000</v>
+        <v>-352.517</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>8797.023246</v>
+        <v>8797.0232460000007</v>
       </c>
       <c r="BO18" s="1">
-        <v>2.443618</v>
+        <v>2.4436179999999998</v>
       </c>
       <c r="BP18" s="1">
-        <v>1470.240000</v>
+        <v>1470.24</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-574.275000</v>
+        <v>-574.27499999999998</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>8807.624272</v>
+        <v>8807.6242719999991</v>
       </c>
       <c r="BT18" s="1">
-        <v>2.446562</v>
+        <v>2.4465620000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1598.580000</v>
+        <v>1598.58</v>
       </c>
       <c r="BV18" s="1">
-        <v>-826.712000</v>
+        <v>-826.71199999999999</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>8818.609138</v>
+        <v>8818.6091379999998</v>
       </c>
       <c r="BY18" s="1">
         <v>2.449614</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1748.200000</v>
+        <v>1748.2</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1101.610000</v>
+        <v>-1101.6099999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>8831.395041</v>
+        <v>8831.3950409999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>2.453165</v>
+        <v>2.4531649999999998</v>
       </c>
       <c r="CE18" s="1">
-        <v>2162.690000</v>
+        <v>2162.69</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1771.060000</v>
+        <v>-1771.06</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>8659.928531</v>
+        <v>8659.9285309999996</v>
       </c>
       <c r="B19" s="1">
-        <v>2.405536</v>
+        <v>2.4055360000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1142.230000</v>
+        <v>1142.23</v>
       </c>
       <c r="D19" s="1">
-        <v>-253.108000</v>
+        <v>-253.108</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>8670.612357</v>
       </c>
       <c r="G19" s="1">
-        <v>2.408503</v>
+        <v>2.4085030000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1163.180000</v>
+        <v>1163.18</v>
       </c>
       <c r="I19" s="1">
-        <v>-212.826000</v>
+        <v>-212.82599999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>8681.007511</v>
+        <v>8681.0075109999998</v>
       </c>
       <c r="L19" s="1">
-        <v>2.411391</v>
+        <v>2.4113910000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1191.490000</v>
+        <v>1191.49</v>
       </c>
       <c r="N19" s="1">
-        <v>-148.324000</v>
+        <v>-148.32400000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>8691.540058</v>
+        <v>8691.5400580000005</v>
       </c>
       <c r="Q19" s="1">
         <v>2.414317</v>
       </c>
       <c r="R19" s="1">
-        <v>1199.390000</v>
+        <v>1199.3900000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-126.689000</v>
+        <v>-126.68899999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>8702.190156</v>
+        <v>8702.1901560000006</v>
       </c>
       <c r="V19" s="1">
-        <v>2.417275</v>
+        <v>2.4172750000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1206.800000</v>
+        <v>1206.8</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.182000</v>
+        <v>-106.182</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>8712.469246</v>
+        <v>8712.4692460000006</v>
       </c>
       <c r="AA19" s="1">
-        <v>2.420130</v>
+        <v>2.4201299999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1214.420000</v>
+        <v>1214.42</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.486600</v>
+        <v>-89.486599999999996</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>8722.926432</v>
+        <v>8722.9264320000002</v>
       </c>
       <c r="AF19" s="1">
         <v>2.423035</v>
       </c>
       <c r="AG19" s="1">
-        <v>1219.180000</v>
+        <v>1219.18</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.102700</v>
+        <v>-85.102699999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>8733.108275</v>
+        <v>8733.1082750000005</v>
       </c>
       <c r="AK19" s="1">
-        <v>2.425863</v>
+        <v>2.4258630000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1226.140000</v>
+        <v>1226.1400000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.393600</v>
+        <v>-88.393600000000006</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>8743.942917</v>
+        <v>8743.9429170000003</v>
       </c>
       <c r="AP19" s="1">
-        <v>2.428873</v>
+        <v>2.4288729999999998</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1234.010000</v>
+        <v>1234.01</v>
       </c>
       <c r="AR19" s="1">
-        <v>-100.181000</v>
+        <v>-100.181</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>8754.850431</v>
+        <v>8754.8504310000008</v>
       </c>
       <c r="AU19" s="1">
-        <v>2.431903</v>
+        <v>2.4319030000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1243.900000</v>
+        <v>1243.9000000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-119.221000</v>
+        <v>-119.221</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>8765.373064</v>
+        <v>8765.3730639999994</v>
       </c>
       <c r="AZ19" s="1">
-        <v>2.434826</v>
+        <v>2.4348260000000002</v>
       </c>
       <c r="BA19" s="1">
-        <v>1252.180000</v>
+        <v>1252.18</v>
       </c>
       <c r="BB19" s="1">
-        <v>-136.451000</v>
+        <v>-136.45099999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>8775.998826</v>
+        <v>8775.9988259999991</v>
       </c>
       <c r="BE19" s="1">
-        <v>2.437777</v>
+        <v>2.4377770000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1291.430000</v>
+        <v>1291.43</v>
       </c>
       <c r="BG19" s="1">
-        <v>-217.268000</v>
+        <v>-217.268</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>8786.973804</v>
+        <v>8786.9738039999993</v>
       </c>
       <c r="BJ19" s="1">
-        <v>2.440826</v>
+        <v>2.4408259999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1359.140000</v>
+        <v>1359.14</v>
       </c>
       <c r="BL19" s="1">
-        <v>-352.530000</v>
+        <v>-352.53</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>8797.422527</v>
+        <v>8797.4225270000006</v>
       </c>
       <c r="BO19" s="1">
-        <v>2.443728</v>
+        <v>2.4437280000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1470.200000</v>
+        <v>1470.2</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-574.278000</v>
+        <v>-574.27800000000002</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>8808.340959</v>
+        <v>8808.3409589999992</v>
       </c>
       <c r="BT19" s="1">
         <v>2.446761</v>
       </c>
       <c r="BU19" s="1">
-        <v>1598.580000</v>
+        <v>1598.58</v>
       </c>
       <c r="BV19" s="1">
-        <v>-826.512000</v>
+        <v>-826.51199999999994</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>8819.359090</v>
+        <v>8819.3590899999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>2.449822</v>
+        <v>2.4498220000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1748.200000</v>
+        <v>1748.2</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1101.540000</v>
+        <v>-1101.54</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>8831.639041</v>
+        <v>8831.6390410000004</v>
       </c>
       <c r="CD19" s="1">
         <v>2.453233</v>
       </c>
       <c r="CE19" s="1">
-        <v>2162.110000</v>
+        <v>2162.11</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1773.620000</v>
+        <v>-1773.62</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>8660.268818</v>
+        <v>8660.2688180000005</v>
       </c>
       <c r="B20" s="1">
-        <v>2.405630</v>
+        <v>2.4056299999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1142.470000</v>
+        <v>1142.47</v>
       </c>
       <c r="D20" s="1">
-        <v>-252.822000</v>
+        <v>-252.822</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>8671.037467</v>
+        <v>8671.0374670000001</v>
       </c>
       <c r="G20" s="1">
-        <v>2.408622</v>
+        <v>2.4086219999999998</v>
       </c>
       <c r="H20" s="1">
-        <v>1163.770000</v>
+        <v>1163.77</v>
       </c>
       <c r="I20" s="1">
-        <v>-213.132000</v>
+        <v>-213.13200000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>8681.419687</v>
+        <v>8681.4196869999996</v>
       </c>
       <c r="L20" s="1">
         <v>2.411505</v>
       </c>
       <c r="M20" s="1">
-        <v>1191.630000</v>
+        <v>1191.6300000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-148.251000</v>
+        <v>-148.251</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>8691.819801</v>
+        <v>8691.8198009999996</v>
       </c>
       <c r="Q20" s="1">
-        <v>2.414394</v>
+        <v>2.4143940000000002</v>
       </c>
       <c r="R20" s="1">
-        <v>1199.400000</v>
+        <v>1199.4000000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-126.656000</v>
+        <v>-126.65600000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>8702.302253</v>
+        <v>8702.3022529999998</v>
       </c>
       <c r="V20" s="1">
         <v>2.417306</v>
       </c>
       <c r="W20" s="1">
-        <v>1206.810000</v>
+        <v>1206.81</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.268000</v>
+        <v>-106.268</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>8712.816445</v>
+        <v>8712.8164450000004</v>
       </c>
       <c r="AA20" s="1">
-        <v>2.420227</v>
+        <v>2.4202270000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1214.540000</v>
+        <v>1214.54</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.518700</v>
+        <v>-89.518699999999995</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>8723.266655</v>
+        <v>8723.2666549999994</v>
       </c>
       <c r="AF20" s="1">
-        <v>2.423130</v>
+        <v>2.42313</v>
       </c>
       <c r="AG20" s="1">
-        <v>1219.100000</v>
+        <v>1219.0999999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.090700</v>
+        <v>-85.090699999999998</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>8733.455970</v>
+        <v>8733.4559700000009</v>
       </c>
       <c r="AK20" s="1">
-        <v>2.425960</v>
+        <v>2.4259599999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1226.160000</v>
+        <v>1226.1600000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.413100</v>
+        <v>-88.4131</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>8744.662116</v>
+        <v>8744.6621159999995</v>
       </c>
       <c r="AP20" s="1">
-        <v>2.429073</v>
+        <v>2.4290729999999998</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1234.030000</v>
+        <v>1234.03</v>
       </c>
       <c r="AR20" s="1">
-        <v>-100.164000</v>
+        <v>-100.164</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>8755.053770</v>
+        <v>8755.0537700000004</v>
       </c>
       <c r="AU20" s="1">
         <v>2.431959</v>
       </c>
       <c r="AV20" s="1">
-        <v>1243.890000</v>
+        <v>1243.8900000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-119.192000</v>
+        <v>-119.19199999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>8765.730649</v>
+        <v>8765.7306489999992</v>
       </c>
       <c r="AZ20" s="1">
-        <v>2.434925</v>
+        <v>2.4349249999999998</v>
       </c>
       <c r="BA20" s="1">
-        <v>1252.190000</v>
+        <v>1252.19</v>
       </c>
       <c r="BB20" s="1">
-        <v>-136.450000</v>
+        <v>-136.44999999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>8776.360441</v>
+        <v>8776.3604410000007</v>
       </c>
       <c r="BE20" s="1">
         <v>2.437878</v>
       </c>
       <c r="BF20" s="1">
-        <v>1291.440000</v>
+        <v>1291.44</v>
       </c>
       <c r="BG20" s="1">
-        <v>-217.259000</v>
+        <v>-217.25899999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>8787.351259</v>
+        <v>8787.3512589999991</v>
       </c>
       <c r="BJ20" s="1">
         <v>2.440931</v>
       </c>
       <c r="BK20" s="1">
-        <v>1359.150000</v>
+        <v>1359.15</v>
       </c>
       <c r="BL20" s="1">
-        <v>-352.518000</v>
+        <v>-352.51799999999997</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>8798.147709</v>
+        <v>8798.1477090000008</v>
       </c>
       <c r="BO20" s="1">
-        <v>2.443930</v>
+        <v>2.4439299999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1470.200000</v>
+        <v>1470.2</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-574.310000</v>
+        <v>-574.30999999999995</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>8808.468431</v>
+        <v>8808.4684309999993</v>
       </c>
       <c r="BT20" s="1">
-        <v>2.446797</v>
+        <v>2.4467970000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1598.460000</v>
+        <v>1598.46</v>
       </c>
       <c r="BV20" s="1">
-        <v>-826.500000</v>
+        <v>-826.5</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>8819.508384</v>
+        <v>8819.5083840000007</v>
       </c>
       <c r="BY20" s="1">
-        <v>2.449863</v>
+        <v>2.4498630000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1748.210000</v>
+        <v>1748.21</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1101.600000</v>
+        <v>-1101.5999999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>8832.173259</v>
+        <v>8832.1732589999992</v>
       </c>
       <c r="CD20" s="1">
-        <v>2.453381</v>
+        <v>2.4533809999999998</v>
       </c>
       <c r="CE20" s="1">
-        <v>2163.990000</v>
+        <v>2163.9899999999998</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1771.740000</v>
+        <v>-1771.74</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>8660.675042</v>
+        <v>8660.6750420000008</v>
       </c>
       <c r="B21" s="1">
-        <v>2.405743</v>
+        <v>2.4057430000000002</v>
       </c>
       <c r="C21" s="1">
-        <v>1142.280000</v>
+        <v>1142.28</v>
       </c>
       <c r="D21" s="1">
-        <v>-252.768000</v>
+        <v>-252.768</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>8671.313206</v>
+        <v>8671.3132060000007</v>
       </c>
       <c r="G21" s="1">
-        <v>2.408698</v>
+        <v>2.4086979999999998</v>
       </c>
       <c r="H21" s="1">
-        <v>1163.970000</v>
+        <v>1163.97</v>
       </c>
       <c r="I21" s="1">
-        <v>-212.521000</v>
+        <v>-212.52099999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>8681.702406</v>
+        <v>8681.7024060000003</v>
       </c>
       <c r="L21" s="1">
-        <v>2.411584</v>
+        <v>2.4115839999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1191.540000</v>
+        <v>1191.54</v>
       </c>
       <c r="N21" s="1">
-        <v>-148.016000</v>
+        <v>-148.01599999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>8692.169481</v>
+        <v>8692.1694810000008</v>
       </c>
       <c r="Q21" s="1">
-        <v>2.414492</v>
+        <v>2.4144920000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1199.440000</v>
+        <v>1199.44</v>
       </c>
       <c r="S21" s="1">
-        <v>-126.669000</v>
+        <v>-126.669</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>8702.633580</v>
+        <v>8702.6335799999997</v>
       </c>
       <c r="V21" s="1">
-        <v>2.417398</v>
+        <v>2.4173979999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1206.820000</v>
+        <v>1206.82</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.326000</v>
+        <v>-106.32599999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>8713.165661</v>
+        <v>8713.1656609999991</v>
       </c>
       <c r="AA21" s="1">
-        <v>2.420324</v>
+        <v>2.4203239999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1214.330000</v>
+        <v>1214.33</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.594700</v>
+        <v>-89.594700000000003</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>8723.955632</v>
+        <v>8723.9556319999992</v>
       </c>
       <c r="AF21" s="1">
-        <v>2.423321</v>
+        <v>2.4233210000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1219.050000</v>
+        <v>1219.05</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.091000</v>
+        <v>-85.090999999999994</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>8734.156430</v>
+        <v>8734.1564299999991</v>
       </c>
       <c r="AK21" s="1">
-        <v>2.426155</v>
+        <v>2.4261550000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1226.150000</v>
+        <v>1226.1500000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.408500</v>
+        <v>-88.408500000000004</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>8745.023200</v>
+        <v>8745.0231999999996</v>
       </c>
       <c r="AP21" s="1">
         <v>2.429173</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1234.040000</v>
+        <v>1234.04</v>
       </c>
       <c r="AR21" s="1">
-        <v>-100.174000</v>
+        <v>-100.17400000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>8755.420309</v>
+        <v>8755.4203089999992</v>
       </c>
       <c r="AU21" s="1">
         <v>2.432061</v>
       </c>
       <c r="AV21" s="1">
-        <v>1243.870000</v>
+        <v>1243.8699999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-119.208000</v>
+        <v>-119.208</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>8766.089788</v>
+        <v>8766.0897879999993</v>
       </c>
       <c r="AZ21" s="1">
         <v>2.435025</v>
       </c>
       <c r="BA21" s="1">
-        <v>1252.220000</v>
+        <v>1252.22</v>
       </c>
       <c r="BB21" s="1">
-        <v>-136.464000</v>
+        <v>-136.464</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>8777.017112</v>
+        <v>8777.0171119999995</v>
       </c>
       <c r="BE21" s="1">
-        <v>2.438060</v>
+        <v>2.4380600000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1291.430000</v>
+        <v>1291.43</v>
       </c>
       <c r="BG21" s="1">
-        <v>-217.262000</v>
+        <v>-217.262</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>8788.031275</v>
+        <v>8788.0312749999994</v>
       </c>
       <c r="BJ21" s="1">
-        <v>2.441120</v>
+        <v>2.4411200000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1359.180000</v>
+        <v>1359.18</v>
       </c>
       <c r="BL21" s="1">
-        <v>-352.546000</v>
+        <v>-352.54599999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>8798.265230</v>
+        <v>8798.2652300000009</v>
       </c>
       <c r="BO21" s="1">
-        <v>2.443963</v>
+        <v>2.4439630000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1470.230000</v>
+        <v>1470.23</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-574.311000</v>
+        <v>-574.31100000000004</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>8808.906399</v>
+        <v>8808.9063989999995</v>
       </c>
       <c r="BT21" s="1">
-        <v>2.446918</v>
+        <v>2.4469180000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1598.480000</v>
+        <v>1598.48</v>
       </c>
       <c r="BV21" s="1">
-        <v>-826.342000</v>
+        <v>-826.34199999999998</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>8819.929985</v>
+        <v>8819.9299850000007</v>
       </c>
       <c r="BY21" s="1">
-        <v>2.449981</v>
+        <v>2.4499810000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1748.280000</v>
+        <v>1748.28</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1101.600000</v>
+        <v>-1101.5999999999999</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>8832.711391</v>
+        <v>8832.7113910000007</v>
       </c>
       <c r="CD21" s="1">
-        <v>2.453531</v>
+        <v>2.4535309999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2161.640000</v>
+        <v>2161.64</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1772.070000</v>
+        <v>-1772.07</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>8660.968669</v>
+        <v>8660.9686689999999</v>
       </c>
       <c r="B22" s="1">
-        <v>2.405825</v>
+        <v>2.4058250000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1142.730000</v>
+        <v>1142.73</v>
       </c>
       <c r="D22" s="1">
-        <v>-252.476000</v>
+        <v>-252.476</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>8671.658949</v>
+        <v>8671.6589490000006</v>
       </c>
       <c r="G22" s="1">
-        <v>2.408794</v>
+        <v>2.4087939999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1163.860000</v>
+        <v>1163.8599999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-212.471000</v>
+        <v>-212.471</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>8682.046135</v>
+        <v>8682.0461350000005</v>
       </c>
       <c r="L22" s="1">
-        <v>2.411679</v>
+        <v>2.4116789999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1191.600000</v>
+        <v>1191.5999999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-148.334000</v>
+        <v>-148.334</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>8692.518664</v>
+        <v>8692.5186639999993</v>
       </c>
       <c r="Q22" s="1">
-        <v>2.414589</v>
+        <v>2.4145889999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1199.480000</v>
+        <v>1199.48</v>
       </c>
       <c r="S22" s="1">
-        <v>-126.685000</v>
+        <v>-126.685</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>8703.321067</v>
+        <v>8703.3210670000008</v>
       </c>
       <c r="V22" s="1">
         <v>2.417589</v>
       </c>
       <c r="W22" s="1">
-        <v>1206.770000</v>
+        <v>1206.77</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.337000</v>
+        <v>-106.337</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>8713.862012</v>
+        <v>8713.8620119999996</v>
       </c>
       <c r="AA22" s="1">
-        <v>2.420517</v>
+        <v>2.4205169999999998</v>
       </c>
       <c r="AB22" s="1">
-        <v>1214.480000</v>
+        <v>1214.48</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.613800</v>
+        <v>-89.613799999999998</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>8724.298334</v>
+        <v>8724.2983339999992</v>
       </c>
       <c r="AF22" s="1">
         <v>2.423416</v>
       </c>
       <c r="AG22" s="1">
-        <v>1219.130000</v>
+        <v>1219.1300000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.120300</v>
+        <v>-85.1203</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>8734.491617</v>
+        <v>8734.4916169999997</v>
       </c>
       <c r="AK22" s="1">
-        <v>2.426248</v>
+        <v>2.4262480000000002</v>
       </c>
       <c r="AL22" s="1">
-        <v>1226.160000</v>
+        <v>1226.1600000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.417300</v>
+        <v>-88.417299999999997</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>8745.382274</v>
+        <v>8745.3822739999996</v>
       </c>
       <c r="AP22" s="1">
-        <v>2.429273</v>
+        <v>2.4292729999999998</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1234.040000</v>
+        <v>1234.04</v>
       </c>
       <c r="AR22" s="1">
-        <v>-100.170000</v>
+        <v>-100.17</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>8756.086468</v>
+        <v>8756.0864679999995</v>
       </c>
       <c r="AU22" s="1">
-        <v>2.432246</v>
+        <v>2.4322460000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1243.890000</v>
+        <v>1243.8900000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-119.214000</v>
+        <v>-119.214</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>8766.746950</v>
+        <v>8766.7469500000007</v>
       </c>
       <c r="AZ22" s="1">
-        <v>2.435207</v>
+        <v>2.4352070000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1252.190000</v>
+        <v>1252.19</v>
       </c>
       <c r="BB22" s="1">
-        <v>-136.459000</v>
+        <v>-136.459</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>8777.474953</v>
+        <v>8777.4749530000008</v>
       </c>
       <c r="BE22" s="1">
-        <v>2.438187</v>
+        <v>2.4381870000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1291.450000</v>
+        <v>1291.45</v>
       </c>
       <c r="BG22" s="1">
-        <v>-217.305000</v>
+        <v>-217.30500000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>8788.594270</v>
+        <v>8788.5942699999996</v>
       </c>
       <c r="BJ22" s="1">
-        <v>2.441276</v>
+        <v>2.4412759999999998</v>
       </c>
       <c r="BK22" s="1">
-        <v>1359.200000</v>
+        <v>1359.2</v>
       </c>
       <c r="BL22" s="1">
-        <v>-352.585000</v>
+        <v>-352.58499999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>8798.663516</v>
+        <v>8798.6635160000005</v>
       </c>
       <c r="BO22" s="1">
-        <v>2.444073</v>
+        <v>2.4440729999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1470.150000</v>
+        <v>1470.15</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-574.328000</v>
+        <v>-574.32799999999997</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>8809.333168</v>
+        <v>8809.3331679999992</v>
       </c>
       <c r="BT22" s="1">
-        <v>2.447037</v>
+        <v>2.4470369999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1598.400000</v>
+        <v>1598.4</v>
       </c>
       <c r="BV22" s="1">
-        <v>-826.253000</v>
+        <v>-826.25300000000004</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>8820.355065</v>
+        <v>8820.3550649999997</v>
       </c>
       <c r="BY22" s="1">
-        <v>2.450099</v>
+        <v>2.4500989999999998</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1748.140000</v>
+        <v>1748.14</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1101.310000</v>
+        <v>-1101.31</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>8833.253555</v>
+        <v>8833.2535549999993</v>
       </c>
       <c r="CD22" s="1">
-        <v>2.453682</v>
+        <v>2.4536820000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>2162.720000</v>
+        <v>2162.7199999999998</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1773.510000</v>
+        <v>-1773.51</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>8661.309889</v>
+        <v>8661.3098890000001</v>
       </c>
       <c r="B23" s="1">
-        <v>2.405919</v>
+        <v>2.4059189999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1142.120000</v>
+        <v>1142.1199999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-252.700000</v>
+        <v>-252.7</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>8672.004131</v>
+        <v>8672.0041309999997</v>
       </c>
       <c r="G23" s="1">
-        <v>2.408890</v>
+        <v>2.40889</v>
       </c>
       <c r="H23" s="1">
-        <v>1163.940000</v>
+        <v>1163.94</v>
       </c>
       <c r="I23" s="1">
-        <v>-211.781000</v>
+        <v>-211.78100000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>8682.392343</v>
+        <v>8682.3923429999995</v>
       </c>
       <c r="L23" s="1">
-        <v>2.411776</v>
+        <v>2.4117760000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1191.200000</v>
+        <v>1191.2</v>
       </c>
       <c r="N23" s="1">
-        <v>-148.144000</v>
+        <v>-148.14400000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>8693.215048</v>
       </c>
       <c r="Q23" s="1">
-        <v>2.414782</v>
+        <v>2.4147820000000002</v>
       </c>
       <c r="R23" s="1">
-        <v>1199.390000</v>
+        <v>1199.3900000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-126.714000</v>
+        <v>-126.714</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>8703.668233</v>
+        <v>8703.6682330000003</v>
       </c>
       <c r="V23" s="1">
-        <v>2.417686</v>
+        <v>2.4176859999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>1206.730000</v>
+        <v>1206.73</v>
       </c>
       <c r="X23" s="1">
-        <v>-106.346000</v>
+        <v>-106.346</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>8714.211232</v>
+        <v>8714.2112319999997</v>
       </c>
       <c r="AA23" s="1">
         <v>2.420614</v>
       </c>
       <c r="AB23" s="1">
-        <v>1214.430000</v>
+        <v>1214.43</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.654400</v>
+        <v>-89.654399999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>8724.644047</v>
+        <v>8724.6440469999998</v>
       </c>
       <c r="AF23" s="1">
-        <v>2.423512</v>
+        <v>2.4235120000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1219.050000</v>
+        <v>1219.05</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.095600</v>
+        <v>-85.095600000000005</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>8734.852208</v>
+        <v>8734.8522080000002</v>
       </c>
       <c r="AK23" s="1">
-        <v>2.426348</v>
+        <v>2.4263479999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1226.170000</v>
+        <v>1226.17</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.414100</v>
+        <v>-88.414100000000005</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>8746.046913</v>
+        <v>8746.0469130000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>2.429457</v>
+        <v>2.4294570000000002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1234.050000</v>
+        <v>1234.05</v>
       </c>
       <c r="AR23" s="1">
-        <v>-100.189000</v>
+        <v>-100.18899999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>8756.547716</v>
+        <v>8756.5477159999991</v>
       </c>
       <c r="AU23" s="1">
-        <v>2.432374</v>
+        <v>2.4323739999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>1243.900000</v>
+        <v>1243.9000000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-119.211000</v>
+        <v>-119.211</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>8767.201287</v>
+        <v>8767.2012869999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>2.435334</v>
+        <v>2.4353340000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1252.210000</v>
+        <v>1252.21</v>
       </c>
       <c r="BB23" s="1">
-        <v>-136.437000</v>
+        <v>-136.43700000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>8777.836504</v>
+        <v>8777.8365040000008</v>
       </c>
       <c r="BE23" s="1">
         <v>2.438288</v>
       </c>
       <c r="BF23" s="1">
-        <v>1291.460000</v>
+        <v>1291.46</v>
       </c>
       <c r="BG23" s="1">
-        <v>-217.269000</v>
+        <v>-217.26900000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>8788.851161</v>
+        <v>8788.8511610000005</v>
       </c>
       <c r="BJ23" s="1">
-        <v>2.441348</v>
+        <v>2.4413480000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1359.160000</v>
+        <v>1359.16</v>
       </c>
       <c r="BL23" s="1">
-        <v>-352.515000</v>
+        <v>-352.51499999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>8799.086604</v>
+        <v>8799.0866040000001</v>
       </c>
       <c r="BO23" s="1">
         <v>2.444191</v>
       </c>
       <c r="BP23" s="1">
-        <v>1470.200000</v>
+        <v>1470.2</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-574.320000</v>
+        <v>-574.32000000000005</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>8809.746125</v>
+        <v>8809.7461249999997</v>
       </c>
       <c r="BT23" s="1">
         <v>2.447152</v>
       </c>
       <c r="BU23" s="1">
-        <v>1598.550000</v>
+        <v>1598.55</v>
       </c>
       <c r="BV23" s="1">
-        <v>-826.087000</v>
+        <v>-826.08699999999999</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>8820.773182</v>
+        <v>8820.7731820000008</v>
       </c>
       <c r="BY23" s="1">
         <v>2.450215</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1748.130000</v>
+        <v>1748.13</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1101.570000</v>
+        <v>-1101.57</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>8833.793663</v>
+        <v>8833.7936630000004</v>
       </c>
       <c r="CD23" s="1">
-        <v>2.453832</v>
+        <v>2.4538319999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>2162.900000</v>
+        <v>2162.9</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1771.110000</v>
+        <v>-1771.11</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>8661.642211</v>
+        <v>8661.6422110000003</v>
       </c>
       <c r="B24" s="1">
         <v>2.406012</v>
       </c>
       <c r="C24" s="1">
-        <v>1142.120000</v>
+        <v>1142.1199999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-253.051000</v>
+        <v>-253.05099999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>8672.694098</v>
+        <v>8672.6940979999999</v>
       </c>
       <c r="G24" s="1">
-        <v>2.409082</v>
+        <v>2.4090820000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>1163.970000</v>
+        <v>1163.97</v>
       </c>
       <c r="I24" s="1">
-        <v>-212.759000</v>
+        <v>-212.75899999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>8683.084299</v>
+        <v>8683.0842990000001</v>
       </c>
       <c r="L24" s="1">
-        <v>2.411968</v>
+        <v>2.4119679999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1191.560000</v>
+        <v>1191.56</v>
       </c>
       <c r="N24" s="1">
-        <v>-148.312000</v>
+        <v>-148.31200000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>8693.563271</v>
+        <v>8693.5632710000009</v>
       </c>
       <c r="Q24" s="1">
         <v>2.414879</v>
       </c>
       <c r="R24" s="1">
-        <v>1199.430000</v>
+        <v>1199.43</v>
       </c>
       <c r="S24" s="1">
-        <v>-126.751000</v>
+        <v>-126.751</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>8704.010970</v>
+        <v>8704.0109699999994</v>
       </c>
       <c r="V24" s="1">
-        <v>2.417781</v>
+        <v>2.4177810000000002</v>
       </c>
       <c r="W24" s="1">
-        <v>1206.820000</v>
+        <v>1206.82</v>
       </c>
       <c r="X24" s="1">
-        <v>-106.301000</v>
+        <v>-106.301</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>8714.559921</v>
       </c>
       <c r="AA24" s="1">
-        <v>2.420711</v>
+        <v>2.4207109999999998</v>
       </c>
       <c r="AB24" s="1">
-        <v>1214.370000</v>
+        <v>1214.3699999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.481900</v>
+        <v>-89.481899999999996</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>8725.297318</v>
+        <v>8725.2973180000008</v>
       </c>
       <c r="AF24" s="1">
-        <v>2.423694</v>
+        <v>2.4236939999999998</v>
       </c>
       <c r="AG24" s="1">
-        <v>1219.090000</v>
+        <v>1219.0899999999999</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.114300</v>
+        <v>-85.1143</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>8735.521311</v>
+        <v>8735.5213110000004</v>
       </c>
       <c r="AK24" s="1">
-        <v>2.426534</v>
+        <v>2.4265340000000002</v>
       </c>
       <c r="AL24" s="1">
-        <v>1226.170000</v>
+        <v>1226.17</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.429300</v>
+        <v>-88.429299999999998</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>8746.492855</v>
+        <v>8746.4928550000004</v>
       </c>
       <c r="AP24" s="1">
-        <v>2.429581</v>
+        <v>2.4295810000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1234.040000</v>
+        <v>1234.04</v>
       </c>
       <c r="AR24" s="1">
-        <v>-100.144000</v>
+        <v>-100.14400000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>8756.910293</v>
+        <v>8756.9102930000008</v>
       </c>
       <c r="AU24" s="1">
-        <v>2.432475</v>
+        <v>2.4324750000000002</v>
       </c>
       <c r="AV24" s="1">
-        <v>1243.890000</v>
+        <v>1243.8900000000001</v>
       </c>
       <c r="AW24" s="1">
-        <v>-119.206000</v>
+        <v>-119.206</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>8767.559399</v>
+        <v>8767.5593989999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>2.435433</v>
+        <v>2.4354330000000002</v>
       </c>
       <c r="BA24" s="1">
-        <v>1252.180000</v>
+        <v>1252.18</v>
       </c>
       <c r="BB24" s="1">
-        <v>-136.415000</v>
+        <v>-136.41499999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>8778.200567</v>
+        <v>8778.2005669999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>2.438389</v>
+        <v>2.4383889999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1291.450000</v>
+        <v>1291.45</v>
       </c>
       <c r="BG24" s="1">
-        <v>-217.272000</v>
+        <v>-217.27199999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>8789.427548</v>
+        <v>8789.4275479999997</v>
       </c>
       <c r="BJ24" s="1">
-        <v>2.441508</v>
+        <v>2.4415079999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1359.150000</v>
+        <v>1359.15</v>
       </c>
       <c r="BL24" s="1">
-        <v>-352.549000</v>
+        <v>-352.54899999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>8799.496331</v>
+        <v>8799.4963310000003</v>
       </c>
       <c r="BO24" s="1">
-        <v>2.444305</v>
+        <v>2.4443049999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1470.230000</v>
+        <v>1470.23</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-574.300000</v>
+        <v>-574.29999999999995</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>8810.176157</v>
+        <v>8810.1761569999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>2.447271</v>
+        <v>2.4472710000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>1598.560000</v>
+        <v>1598.56</v>
       </c>
       <c r="BV24" s="1">
-        <v>-825.968000</v>
+        <v>-825.96799999999996</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>8821.222062</v>
+        <v>8821.2220620000007</v>
       </c>
       <c r="BY24" s="1">
         <v>2.450339</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1748.290000</v>
+        <v>1748.29</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1101.490000</v>
+        <v>-1101.49</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>8834.331821</v>
+        <v>8834.3318209999998</v>
       </c>
       <c r="CD24" s="1">
-        <v>2.453981</v>
+        <v>2.4539810000000002</v>
       </c>
       <c r="CE24" s="1">
-        <v>2161.720000</v>
+        <v>2161.7199999999998</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1773.470000</v>
+        <v>-1773.47</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>8662.334656</v>
+        <v>8662.3346560000009</v>
       </c>
       <c r="B25" s="1">
-        <v>2.406204</v>
+        <v>2.4062039999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>1142.200000</v>
+        <v>1142.2</v>
       </c>
       <c r="D25" s="1">
-        <v>-253.009000</v>
+        <v>-253.00899999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>8673.036835</v>
+        <v>8673.0368350000008</v>
       </c>
       <c r="G25" s="1">
-        <v>2.409177</v>
+        <v>2.4091770000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1163.430000</v>
+        <v>1163.43</v>
       </c>
       <c r="I25" s="1">
-        <v>-212.227000</v>
+        <v>-212.227</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>8683.424020</v>
+        <v>8683.4240200000004</v>
       </c>
       <c r="L25" s="1">
-        <v>2.412062</v>
+        <v>2.4120620000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>1191.560000</v>
+        <v>1191.56</v>
       </c>
       <c r="N25" s="1">
-        <v>-148.204000</v>
+        <v>-148.20400000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>8693.911926</v>
+        <v>8693.9119260000007</v>
       </c>
       <c r="Q25" s="1">
-        <v>2.414976</v>
+        <v>2.4149759999999998</v>
       </c>
       <c r="R25" s="1">
-        <v>1199.390000</v>
+        <v>1199.3900000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-126.683000</v>
+        <v>-126.68300000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>8704.648328</v>
+        <v>8704.6483279999993</v>
       </c>
       <c r="V25" s="1">
-        <v>2.417958</v>
+        <v>2.4179580000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1206.790000</v>
+        <v>1206.79</v>
       </c>
       <c r="X25" s="1">
-        <v>-106.258000</v>
+        <v>-106.258</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>8715.216618</v>
+        <v>8715.2166180000004</v>
       </c>
       <c r="AA25" s="1">
-        <v>2.420894</v>
+        <v>2.4208940000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1214.350000</v>
+        <v>1214.3499999999999</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.603500</v>
+        <v>-89.603499999999997</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>8725.678701</v>
+        <v>8725.6787010000007</v>
       </c>
       <c r="AF25" s="1">
-        <v>2.423800</v>
+        <v>2.4238</v>
       </c>
       <c r="AG25" s="1">
-        <v>1219.080000</v>
+        <v>1219.08</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.119100</v>
+        <v>-85.119100000000003</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>8735.897775</v>
+        <v>8735.8977749999995</v>
       </c>
       <c r="AK25" s="1">
-        <v>2.426638</v>
+        <v>2.4266380000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1226.120000</v>
+        <v>1226.1199999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.419100</v>
+        <v>-88.4191</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>8746.855264</v>
+        <v>8746.8552639999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>2.429682</v>
+        <v>2.4296820000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1234.050000</v>
+        <v>1234.05</v>
       </c>
       <c r="AR25" s="1">
-        <v>-100.162000</v>
+        <v>-100.16200000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>8757.277828</v>
+        <v>8757.2778280000002</v>
       </c>
       <c r="AU25" s="1">
-        <v>2.432577</v>
+        <v>2.4325770000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>1243.910000</v>
+        <v>1243.9100000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-119.218000</v>
+        <v>-119.218</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>8767.918036</v>
+        <v>8767.9180359999991</v>
       </c>
       <c r="AZ25" s="1">
-        <v>2.435533</v>
+        <v>2.4355329999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1252.210000</v>
+        <v>1252.21</v>
       </c>
       <c r="BB25" s="1">
-        <v>-136.451000</v>
+        <v>-136.45099999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>8778.613768</v>
+        <v>8778.6137679999993</v>
       </c>
       <c r="BE25" s="1">
         <v>2.438504</v>
       </c>
       <c r="BF25" s="1">
-        <v>1291.440000</v>
+        <v>1291.44</v>
       </c>
       <c r="BG25" s="1">
-        <v>-217.306000</v>
+        <v>-217.30600000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>8789.630872</v>
+        <v>8789.6308719999997</v>
       </c>
       <c r="BJ25" s="1">
-        <v>2.441564</v>
+        <v>2.4415640000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1359.180000</v>
+        <v>1359.18</v>
       </c>
       <c r="BL25" s="1">
-        <v>-352.528000</v>
+        <v>-352.52800000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>8799.903548</v>
+        <v>8799.9035480000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>2.444418</v>
+        <v>2.4444180000000002</v>
       </c>
       <c r="BP25" s="1">
-        <v>1470.200000</v>
+        <v>1470.2</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-574.291000</v>
+        <v>-574.29100000000005</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>8810.605228</v>
+        <v>8810.6052280000004</v>
       </c>
       <c r="BT25" s="1">
-        <v>2.447390</v>
+        <v>2.44739</v>
       </c>
       <c r="BU25" s="1">
-        <v>1598.640000</v>
+        <v>1598.64</v>
       </c>
       <c r="BV25" s="1">
-        <v>-825.852000</v>
+        <v>-825.85199999999998</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>8821.631962</v>
+        <v>8821.6319619999995</v>
       </c>
       <c r="BY25" s="1">
         <v>2.450453</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1748.390000</v>
+        <v>1748.39</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1101.540000</v>
+        <v>-1101.54</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>8834.873948</v>
+        <v>8834.8739480000004</v>
       </c>
       <c r="CD25" s="1">
         <v>2.454132</v>
       </c>
       <c r="CE25" s="1">
-        <v>2164.130000</v>
+        <v>2164.13</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1772.250000</v>
+        <v>-1772.25</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>8662.678850</v>
+        <v>8662.6788500000002</v>
       </c>
       <c r="B26" s="1">
-        <v>2.406300</v>
+        <v>2.4062999999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1142.380000</v>
+        <v>1142.3800000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-252.771000</v>
+        <v>-252.77099999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>8673.381522</v>
+        <v>8673.3815219999997</v>
       </c>
       <c r="G26" s="1">
-        <v>2.409273</v>
+        <v>2.4092730000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>1163.690000</v>
+        <v>1163.69</v>
       </c>
       <c r="I26" s="1">
-        <v>-212.173000</v>
+        <v>-212.173</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>8683.779653</v>
+        <v>8683.7796529999996</v>
       </c>
       <c r="L26" s="1">
-        <v>2.412161</v>
+        <v>2.4121610000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>1191.730000</v>
+        <v>1191.73</v>
       </c>
       <c r="N26" s="1">
-        <v>-148.422000</v>
+        <v>-148.422</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>8694.555767</v>
+        <v>8694.5557669999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>2.415154</v>
+        <v>2.4151539999999998</v>
       </c>
       <c r="R26" s="1">
-        <v>1199.410000</v>
+        <v>1199.4100000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-126.673000</v>
+        <v>-126.673</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>8705.045657</v>
+        <v>8705.0456570000006</v>
       </c>
       <c r="V26" s="1">
-        <v>2.418068</v>
+        <v>2.4180679999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1206.790000</v>
+        <v>1206.79</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.280000</v>
+        <v>-106.28</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>8715.607434</v>
+        <v>8715.6074339999996</v>
       </c>
       <c r="AA26" s="1">
-        <v>2.421002</v>
+        <v>2.4210020000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1214.410000</v>
+        <v>1214.4100000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.480600</v>
+        <v>-89.480599999999995</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>8726.027884</v>
+        <v>8726.0278839999992</v>
       </c>
       <c r="AF26" s="1">
-        <v>2.423897</v>
+        <v>2.4238970000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>1219.080000</v>
+        <v>1219.08</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.077900</v>
+        <v>-85.0779</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>8736.246494</v>
+        <v>8736.2464940000009</v>
       </c>
       <c r="AK26" s="1">
-        <v>2.426735</v>
+        <v>2.4267349999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1226.140000</v>
+        <v>1226.1400000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.403400</v>
+        <v>-88.403400000000005</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>8747.215984</v>
+        <v>8747.2159840000004</v>
       </c>
       <c r="AP26" s="1">
-        <v>2.429782</v>
+        <v>2.4297819999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1234.050000</v>
+        <v>1234.05</v>
       </c>
       <c r="AR26" s="1">
-        <v>-100.169000</v>
+        <v>-100.169</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>8757.699923</v>
+        <v>8757.6999230000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>2.432694</v>
+        <v>2.4326940000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1243.880000</v>
+        <v>1243.8800000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-119.222000</v>
+        <v>-119.22199999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>8768.331172</v>
+        <v>8768.3311720000002</v>
       </c>
       <c r="AZ26" s="1">
         <v>2.435648</v>
       </c>
       <c r="BA26" s="1">
-        <v>1252.210000</v>
+        <v>1252.21</v>
       </c>
       <c r="BB26" s="1">
-        <v>-136.423000</v>
+        <v>-136.423</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>8778.921751</v>
+        <v>8778.9217509999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>2.438589</v>
+        <v>2.4385889999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1291.480000</v>
+        <v>1291.48</v>
       </c>
       <c r="BG26" s="1">
-        <v>-217.274000</v>
+        <v>-217.274</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>8790.007832</v>
+        <v>8790.0078319999993</v>
       </c>
       <c r="BJ26" s="1">
-        <v>2.441669</v>
+        <v>2.4416690000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1359.180000</v>
+        <v>1359.18</v>
       </c>
       <c r="BL26" s="1">
-        <v>-352.512000</v>
+        <v>-352.512</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>8800.300550</v>
+        <v>8800.3005499999999</v>
       </c>
       <c r="BO26" s="1">
         <v>2.444528</v>
       </c>
       <c r="BP26" s="1">
-        <v>1470.210000</v>
+        <v>1470.21</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-574.285000</v>
+        <v>-574.28499999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>8811.016912</v>
+        <v>8811.0169119999991</v>
       </c>
       <c r="BT26" s="1">
         <v>2.447505</v>
       </c>
       <c r="BU26" s="1">
-        <v>1598.850000</v>
+        <v>1598.85</v>
       </c>
       <c r="BV26" s="1">
-        <v>-825.793000</v>
+        <v>-825.79300000000001</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>8822.064775</v>
+        <v>8822.0647750000007</v>
       </c>
       <c r="BY26" s="1">
         <v>2.450574</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1748.430000</v>
+        <v>1748.43</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1101.610000</v>
+        <v>-1101.6099999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>8835.411644</v>
+        <v>8835.4116439999998</v>
       </c>
       <c r="CD26" s="1">
-        <v>2.454281</v>
+        <v>2.4542809999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>2161.760000</v>
+        <v>2161.7600000000002</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1771.710000</v>
+        <v>-1771.71</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>